--- a/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,12 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['35', '40']</t>
+  </si>
+  <si>
+    <t>['6', '45']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -833,6 +839,12 @@
   </si>
   <si>
     <t>['32', '73']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['44', '75']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>0.78</v>
@@ -1629,7 +1641,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1907,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT4">
         <v>1.1</v>
@@ -2011,7 +2023,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2202,7 +2214,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2292,7 +2304,7 @@
         <v>1.11</v>
       </c>
       <c r="AT6">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2393,7 +2405,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2865,7 +2877,7 @@
         <v>1.8</v>
       </c>
       <c r="AT9">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3053,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT10">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3157,7 +3169,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3247,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="AT11">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3539,7 +3551,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3626,10 +3638,10 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT13">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3730,7 +3742,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3817,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT14">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3921,7 +3933,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4008,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4199,10 +4211,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4390,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
         <v>1.1</v>
@@ -4494,7 +4506,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4775,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="AT19">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4876,7 +4888,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5067,7 +5079,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5258,7 +5270,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>15</v>
@@ -5449,7 +5461,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5536,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT23">
         <v>0.78</v>
@@ -6109,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT26">
         <v>2</v>
@@ -6213,7 +6225,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6303,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="AT27">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU27">
         <v>1.59</v>
@@ -6404,7 +6416,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6491,10 +6503,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU28">
         <v>2.34</v>
@@ -6682,10 +6694,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT29">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU29">
         <v>2.31</v>
@@ -6786,7 +6798,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>-1</v>
@@ -6873,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU30">
         <v>1.35</v>
@@ -6977,7 +6989,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7064,10 +7076,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT31">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU31">
         <v>1.88</v>
@@ -7168,7 +7180,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7255,10 +7267,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT32">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU32">
         <v>1.32</v>
@@ -7446,10 +7458,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT33">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU33">
         <v>1.42</v>
@@ -7550,7 +7562,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8123,7 +8135,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8314,7 +8326,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8505,7 +8517,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -9165,10 +9177,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT42">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU42">
         <v>1.26</v>
@@ -9359,7 +9371,7 @@
         <v>1.2</v>
       </c>
       <c r="AT43">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU43">
         <v>1.93</v>
@@ -9460,7 +9472,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9547,10 +9559,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU44">
         <v>1.35</v>
@@ -9738,7 +9750,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT45">
         <v>1.4</v>
@@ -9842,7 +9854,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9929,10 +9941,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT46">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU46">
         <v>2.12</v>
@@ -10120,10 +10132,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT47">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU47">
         <v>1.92</v>
@@ -10224,7 +10236,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10314,7 +10326,7 @@
         <v>1</v>
       </c>
       <c r="AT48">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU48">
         <v>1.38</v>
@@ -10415,7 +10427,7 @@
         <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10502,7 +10514,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT49">
         <v>2</v>
@@ -10606,7 +10618,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10797,7 +10809,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10884,7 +10896,7 @@
         <v>2.33</v>
       </c>
       <c r="AS51">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT51">
         <v>1.6</v>
@@ -10988,7 +11000,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11370,7 +11382,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11561,7 +11573,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11842,7 +11854,7 @@
         <v>0.9</v>
       </c>
       <c r="AT56">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU56">
         <v>1.41</v>
@@ -11943,7 +11955,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12134,7 +12146,7 @@
         <v>83</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12325,7 +12337,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12412,7 +12424,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
         <v>2</v>
@@ -12603,10 +12615,10 @@
         <v>0.67</v>
       </c>
       <c r="AS60">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU60">
         <v>1.3</v>
@@ -12797,7 +12809,7 @@
         <v>1.1</v>
       </c>
       <c r="AT61">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU61">
         <v>1.45</v>
@@ -12985,10 +12997,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT62">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU62">
         <v>1.8</v>
@@ -13089,7 +13101,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>10</v>
@@ -13176,7 +13188,7 @@
         <v>2.5</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT63">
         <v>1.6</v>
@@ -13471,7 +13483,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>12</v>
@@ -13561,7 +13573,7 @@
         <v>2.2</v>
       </c>
       <c r="AT65">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU65">
         <v>1.27</v>
@@ -13749,7 +13761,7 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT66">
         <v>1.1</v>
@@ -13853,7 +13865,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14235,7 +14247,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q69">
         <v>10</v>
@@ -14322,7 +14334,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT69">
         <v>1.3</v>
@@ -14426,7 +14438,7 @@
         <v>129</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14617,7 +14629,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14704,10 +14716,10 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT71">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU71">
         <v>1.6</v>
@@ -14808,7 +14820,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14895,7 +14907,7 @@
         <v>2.6</v>
       </c>
       <c r="AS72">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT72">
         <v>1.6</v>
@@ -14999,7 +15011,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15190,7 +15202,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -15280,7 +15292,7 @@
         <v>1.1</v>
       </c>
       <c r="AT74">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU74">
         <v>1.54</v>
@@ -15381,7 +15393,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>18</v>
@@ -15471,7 +15483,7 @@
         <v>0.9</v>
       </c>
       <c r="AT75">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU75">
         <v>1.45</v>
@@ -15572,7 +15584,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15659,10 +15671,10 @@
         <v>3</v>
       </c>
       <c r="AS76">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU76">
         <v>1.25</v>
@@ -15763,7 +15775,7 @@
         <v>83</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15850,7 +15862,7 @@
         <v>0.6</v>
       </c>
       <c r="AS77">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT77">
         <v>1.1</v>
@@ -15954,7 +15966,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16041,7 +16053,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT78">
         <v>1.4</v>
@@ -16145,7 +16157,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16232,10 +16244,10 @@
         <v>2.2</v>
       </c>
       <c r="AS79">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT79">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU79">
         <v>1.35</v>
@@ -16336,7 +16348,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16426,7 +16438,7 @@
         <v>1.2</v>
       </c>
       <c r="AT80">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU80">
         <v>1.8</v>
@@ -16527,7 +16539,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16718,7 +16730,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16909,7 +16921,7 @@
         <v>83</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -16996,7 +17008,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT83">
         <v>1.1</v>
@@ -17100,7 +17112,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17190,7 +17202,7 @@
         <v>1.8</v>
       </c>
       <c r="AT84">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU84">
         <v>1.58</v>
@@ -17381,7 +17393,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU85">
         <v>1.97</v>
@@ -17482,7 +17494,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17569,7 +17581,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT86">
         <v>1.4</v>
@@ -17673,7 +17685,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17763,7 +17775,7 @@
         <v>1.11</v>
       </c>
       <c r="AT87">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU87">
         <v>1.6</v>
@@ -17864,7 +17876,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18055,7 +18067,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18145,7 +18157,7 @@
         <v>1.2</v>
       </c>
       <c r="AT89">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU89">
         <v>1.74</v>
@@ -18246,7 +18258,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18333,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT90">
         <v>1.1</v>
@@ -18437,7 +18449,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -18524,7 +18536,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT91">
         <v>1.4</v>
@@ -18628,7 +18640,7 @@
         <v>83</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18909,7 +18921,7 @@
         <v>2.2</v>
       </c>
       <c r="AT93">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -19010,7 +19022,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19097,7 +19109,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT94">
         <v>1.3</v>
@@ -19201,7 +19213,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19288,7 +19300,7 @@
         <v>2.17</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
         <v>1.6</v>
@@ -19392,7 +19404,7 @@
         <v>149</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19482,7 +19494,7 @@
         <v>1.1</v>
       </c>
       <c r="AT96">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19673,7 +19685,7 @@
         <v>1.8</v>
       </c>
       <c r="AT97">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU97">
         <v>1.99</v>
@@ -19861,10 +19873,10 @@
         <v>0.75</v>
       </c>
       <c r="AS98">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT98">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU98">
         <v>1.86</v>
@@ -20055,7 +20067,7 @@
         <v>2</v>
       </c>
       <c r="AT99">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU99">
         <v>2.01</v>
@@ -20243,10 +20255,10 @@
         <v>0.83</v>
       </c>
       <c r="AS100">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT100">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU100">
         <v>1.68</v>
@@ -20434,7 +20446,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT101">
         <v>1.1</v>
@@ -20538,7 +20550,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20816,7 +20828,7 @@
         <v>1.5</v>
       </c>
       <c r="AS103">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT103">
         <v>1.1</v>
@@ -21010,7 +21022,7 @@
         <v>1.8</v>
       </c>
       <c r="AT104">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU104">
         <v>1.61</v>
@@ -21111,7 +21123,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21201,7 +21213,7 @@
         <v>1.11</v>
       </c>
       <c r="AT105">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU105">
         <v>1.56</v>
@@ -21302,7 +21314,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21392,7 +21404,7 @@
         <v>2.2</v>
       </c>
       <c r="AT106">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU106">
         <v>1.35</v>
@@ -21580,7 +21592,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT107">
         <v>1.1</v>
@@ -21684,7 +21696,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -21771,7 +21783,7 @@
         <v>0.86</v>
       </c>
       <c r="AS108">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT108">
         <v>1.3</v>
@@ -21962,7 +21974,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT109">
         <v>1.1</v>
@@ -22257,7 +22269,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22448,7 +22460,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22538,7 +22550,7 @@
         <v>0.9</v>
       </c>
       <c r="AT112">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU112">
         <v>1.43</v>
@@ -22639,7 +22651,7 @@
         <v>83</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22920,7 +22932,7 @@
         <v>1.8</v>
       </c>
       <c r="AT114">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU114">
         <v>2.07</v>
@@ -23021,7 +23033,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23111,7 +23123,7 @@
         <v>1</v>
       </c>
       <c r="AT115">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU115">
         <v>1.38</v>
@@ -23212,7 +23224,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23299,10 +23311,10 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT116">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU116">
         <v>1.99</v>
@@ -23403,7 +23415,7 @@
         <v>83</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23490,7 +23502,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT117">
         <v>1.1</v>
@@ -23594,7 +23606,7 @@
         <v>109</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23681,7 +23693,7 @@
         <v>1.17</v>
       </c>
       <c r="AS118">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT118">
         <v>1.4</v>
@@ -23875,7 +23887,7 @@
         <v>2</v>
       </c>
       <c r="AT119">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -23976,7 +23988,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -24063,10 +24075,10 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT120">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU120">
         <v>1.83</v>
@@ -24445,7 +24457,7 @@
         <v>1.14</v>
       </c>
       <c r="AS122">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT122">
         <v>1.1</v>
@@ -24549,7 +24561,7 @@
         <v>164</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24636,10 +24648,10 @@
         <v>0.43</v>
       </c>
       <c r="AS123">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT123">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU123">
         <v>1.83</v>
@@ -24740,7 +24752,7 @@
         <v>158</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24827,10 +24839,10 @@
         <v>1.29</v>
       </c>
       <c r="AS124">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT124">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU124">
         <v>1.82</v>
@@ -25122,7 +25134,7 @@
         <v>166</v>
       </c>
       <c r="P126" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25209,7 +25221,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT126">
         <v>1.4</v>
@@ -25403,7 +25415,7 @@
         <v>1</v>
       </c>
       <c r="AT127">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU127">
         <v>1.45</v>
@@ -25504,7 +25516,7 @@
         <v>167</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25591,10 +25603,10 @@
         <v>1.86</v>
       </c>
       <c r="AS128">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT128">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU128">
         <v>1.86</v>
@@ -25785,7 +25797,7 @@
         <v>1.8</v>
       </c>
       <c r="AT129">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU129">
         <v>2.04</v>
@@ -25886,7 +25898,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26077,7 +26089,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26167,7 +26179,7 @@
         <v>1.8</v>
       </c>
       <c r="AT131">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU131">
         <v>1.64</v>
@@ -26268,7 +26280,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26459,7 +26471,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26650,7 +26662,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>9</v>
@@ -26841,7 +26853,7 @@
         <v>174</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27119,7 +27131,7 @@
         <v>1.38</v>
       </c>
       <c r="AS136">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT136">
         <v>1.4</v>
@@ -27223,7 +27235,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27313,7 +27325,7 @@
         <v>1.8</v>
       </c>
       <c r="AT137">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU137">
         <v>2.04</v>
@@ -27414,7 +27426,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>9</v>
@@ -27501,10 +27513,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS138">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT138">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU138">
         <v>1.77</v>
@@ -27692,7 +27704,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT139">
         <v>1.1</v>
@@ -27883,10 +27895,10 @@
         <v>0.5</v>
       </c>
       <c r="AS140">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT140">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU140">
         <v>1.34</v>
@@ -28074,10 +28086,10 @@
         <v>2</v>
       </c>
       <c r="AS141">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT141">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU141">
         <v>1.89</v>
@@ -28178,7 +28190,7 @@
         <v>83</v>
       </c>
       <c r="P142" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>9</v>
@@ -28268,7 +28280,7 @@
         <v>1</v>
       </c>
       <c r="AT142">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU142">
         <v>1.58</v>
@@ -28369,7 +28381,7 @@
         <v>131</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28456,10 +28468,10 @@
         <v>1.25</v>
       </c>
       <c r="AS143">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT143">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU143">
         <v>1.64</v>
@@ -28560,7 +28572,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q144">
         <v>-1</v>
@@ -28647,7 +28659,7 @@
         <v>1.75</v>
       </c>
       <c r="AS144">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT144">
         <v>2</v>
@@ -28751,7 +28763,7 @@
         <v>83</v>
       </c>
       <c r="P145" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29133,7 +29145,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29324,7 +29336,7 @@
         <v>181</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29515,7 +29527,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>8</v>
@@ -29897,7 +29909,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30279,7 +30291,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30470,7 +30482,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30612,6 +30624,1343 @@
       </c>
       <c r="BK154">
         <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2547068</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>76</v>
+      </c>
+      <c r="H155" t="s">
+        <v>68</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>185</v>
+      </c>
+      <c r="P155" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q155">
+        <v>5</v>
+      </c>
+      <c r="R155">
+        <v>8</v>
+      </c>
+      <c r="S155">
+        <v>13</v>
+      </c>
+      <c r="T155">
+        <v>2.38</v>
+      </c>
+      <c r="U155">
+        <v>2.25</v>
+      </c>
+      <c r="V155">
+        <v>4</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>3.04</v>
+      </c>
+      <c r="Y155">
+        <v>2.47</v>
+      </c>
+      <c r="Z155">
+        <v>1.4</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+      <c r="AB155">
+        <v>0</v>
+      </c>
+      <c r="AC155">
+        <v>1.77</v>
+      </c>
+      <c r="AD155">
+        <v>3.65</v>
+      </c>
+      <c r="AE155">
+        <v>3.85</v>
+      </c>
+      <c r="AF155">
+        <v>1.02</v>
+      </c>
+      <c r="AG155">
+        <v>14</v>
+      </c>
+      <c r="AH155">
+        <v>1.22</v>
+      </c>
+      <c r="AI155">
+        <v>3.9</v>
+      </c>
+      <c r="AJ155">
+        <v>1.72</v>
+      </c>
+      <c r="AK155">
+        <v>2.02</v>
+      </c>
+      <c r="AL155">
+        <v>1.66</v>
+      </c>
+      <c r="AM155">
+        <v>2.1</v>
+      </c>
+      <c r="AN155">
+        <v>1.25</v>
+      </c>
+      <c r="AO155">
+        <v>1.25</v>
+      </c>
+      <c r="AP155">
+        <v>1.95</v>
+      </c>
+      <c r="AQ155">
+        <v>1.5</v>
+      </c>
+      <c r="AR155">
+        <v>0.44</v>
+      </c>
+      <c r="AS155">
+        <v>1.64</v>
+      </c>
+      <c r="AT155">
+        <v>0.4</v>
+      </c>
+      <c r="AU155">
+        <v>1.86</v>
+      </c>
+      <c r="AV155">
+        <v>1.39</v>
+      </c>
+      <c r="AW155">
+        <v>3.25</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="AZ155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>7</v>
+      </c>
+      <c r="BG155">
+        <v>7</v>
+      </c>
+      <c r="BH155">
+        <v>2</v>
+      </c>
+      <c r="BI155">
+        <v>8</v>
+      </c>
+      <c r="BJ155">
+        <v>9</v>
+      </c>
+      <c r="BK155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2547071</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>67</v>
+      </c>
+      <c r="H156" t="s">
+        <v>71</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>83</v>
+      </c>
+      <c r="P156" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q156">
+        <v>7</v>
+      </c>
+      <c r="R156">
+        <v>8</v>
+      </c>
+      <c r="S156">
+        <v>15</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
+        <v>2.1</v>
+      </c>
+      <c r="V156">
+        <v>3.75</v>
+      </c>
+      <c r="W156">
+        <v>1.42</v>
+      </c>
+      <c r="X156">
+        <v>2.62</v>
+      </c>
+      <c r="Y156">
+        <v>3.1</v>
+      </c>
+      <c r="Z156">
+        <v>1.24</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+      <c r="AB156">
+        <v>0</v>
+      </c>
+      <c r="AC156">
+        <v>2.1</v>
+      </c>
+      <c r="AD156">
+        <v>3.15</v>
+      </c>
+      <c r="AE156">
+        <v>3.25</v>
+      </c>
+      <c r="AF156">
+        <v>1.05</v>
+      </c>
+      <c r="AG156">
+        <v>10</v>
+      </c>
+      <c r="AH156">
+        <v>1.32</v>
+      </c>
+      <c r="AI156">
+        <v>3.05</v>
+      </c>
+      <c r="AJ156">
+        <v>2.06</v>
+      </c>
+      <c r="AK156">
+        <v>1.68</v>
+      </c>
+      <c r="AL156">
+        <v>1.68</v>
+      </c>
+      <c r="AM156">
+        <v>2.05</v>
+      </c>
+      <c r="AN156">
+        <v>1.3</v>
+      </c>
+      <c r="AO156">
+        <v>1.29</v>
+      </c>
+      <c r="AP156">
+        <v>1.66</v>
+      </c>
+      <c r="AQ156">
+        <v>1.11</v>
+      </c>
+      <c r="AR156">
+        <v>1.44</v>
+      </c>
+      <c r="AS156">
+        <v>1</v>
+      </c>
+      <c r="AT156">
+        <v>1.6</v>
+      </c>
+      <c r="AU156">
+        <v>1.31</v>
+      </c>
+      <c r="AV156">
+        <v>1.36</v>
+      </c>
+      <c r="AW156">
+        <v>2.67</v>
+      </c>
+      <c r="AX156">
+        <v>0</v>
+      </c>
+      <c r="AY156">
+        <v>0</v>
+      </c>
+      <c r="AZ156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>0</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>0</v>
+      </c>
+      <c r="BG156">
+        <v>3</v>
+      </c>
+      <c r="BH156">
+        <v>4</v>
+      </c>
+      <c r="BI156">
+        <v>8</v>
+      </c>
+      <c r="BJ156">
+        <v>4</v>
+      </c>
+      <c r="BK156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2547077</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>79</v>
+      </c>
+      <c r="H157" t="s">
+        <v>75</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>83</v>
+      </c>
+      <c r="P157" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q157">
+        <v>3</v>
+      </c>
+      <c r="R157">
+        <v>1</v>
+      </c>
+      <c r="S157">
+        <v>4</v>
+      </c>
+      <c r="T157">
+        <v>5</v>
+      </c>
+      <c r="U157">
+        <v>2.3</v>
+      </c>
+      <c r="V157">
+        <v>2.1</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>2.93</v>
+      </c>
+      <c r="Y157">
+        <v>2.68</v>
+      </c>
+      <c r="Z157">
+        <v>1.42</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <v>0</v>
+      </c>
+      <c r="AC157">
+        <v>4.4</v>
+      </c>
+      <c r="AD157">
+        <v>3.45</v>
+      </c>
+      <c r="AE157">
+        <v>1.73</v>
+      </c>
+      <c r="AF157">
+        <v>1.01</v>
+      </c>
+      <c r="AG157">
+        <v>10.25</v>
+      </c>
+      <c r="AH157">
+        <v>1.25</v>
+      </c>
+      <c r="AI157">
+        <v>3.65</v>
+      </c>
+      <c r="AJ157">
+        <v>1.82</v>
+      </c>
+      <c r="AK157">
+        <v>1.95</v>
+      </c>
+      <c r="AL157">
+        <v>1.88</v>
+      </c>
+      <c r="AM157">
+        <v>1.78</v>
+      </c>
+      <c r="AN157">
+        <v>2.38</v>
+      </c>
+      <c r="AO157">
+        <v>1.19</v>
+      </c>
+      <c r="AP157">
+        <v>1.1</v>
+      </c>
+      <c r="AQ157">
+        <v>0.44</v>
+      </c>
+      <c r="AR157">
+        <v>2.44</v>
+      </c>
+      <c r="AS157">
+        <v>0.4</v>
+      </c>
+      <c r="AT157">
+        <v>2.5</v>
+      </c>
+      <c r="AU157">
+        <v>1.82</v>
+      </c>
+      <c r="AV157">
+        <v>1.52</v>
+      </c>
+      <c r="AW157">
+        <v>3.34</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>0</v>
+      </c>
+      <c r="AZ157">
+        <v>0</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>0</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>4</v>
+      </c>
+      <c r="BG157">
+        <v>5</v>
+      </c>
+      <c r="BH157">
+        <v>6</v>
+      </c>
+      <c r="BI157">
+        <v>6</v>
+      </c>
+      <c r="BJ157">
+        <v>10</v>
+      </c>
+      <c r="BK157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2547076</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44996.46875</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>73</v>
+      </c>
+      <c r="H158" t="s">
+        <v>80</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>83</v>
+      </c>
+      <c r="P158" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q158">
+        <v>1</v>
+      </c>
+      <c r="R158">
+        <v>5</v>
+      </c>
+      <c r="S158">
+        <v>6</v>
+      </c>
+      <c r="T158">
+        <v>3</v>
+      </c>
+      <c r="U158">
+        <v>2.25</v>
+      </c>
+      <c r="V158">
+        <v>3.1</v>
+      </c>
+      <c r="W158">
+        <v>1.32</v>
+      </c>
+      <c r="X158">
+        <v>3.1</v>
+      </c>
+      <c r="Y158">
+        <v>2.53</v>
+      </c>
+      <c r="Z158">
+        <v>1.46</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+      <c r="AB158">
+        <v>0</v>
+      </c>
+      <c r="AC158">
+        <v>1.85</v>
+      </c>
+      <c r="AD158">
+        <v>3.5</v>
+      </c>
+      <c r="AE158">
+        <v>3.7</v>
+      </c>
+      <c r="AF158">
+        <v>1.02</v>
+      </c>
+      <c r="AG158">
+        <v>14</v>
+      </c>
+      <c r="AH158">
+        <v>1.21</v>
+      </c>
+      <c r="AI158">
+        <v>3.74</v>
+      </c>
+      <c r="AJ158">
+        <v>1.68</v>
+      </c>
+      <c r="AK158">
+        <v>2.06</v>
+      </c>
+      <c r="AL158">
+        <v>1.59</v>
+      </c>
+      <c r="AM158">
+        <v>2.29</v>
+      </c>
+      <c r="AN158">
+        <v>1.34</v>
+      </c>
+      <c r="AO158">
+        <v>1.26</v>
+      </c>
+      <c r="AP158">
+        <v>1.61</v>
+      </c>
+      <c r="AQ158">
+        <v>1.33</v>
+      </c>
+      <c r="AR158">
+        <v>2.56</v>
+      </c>
+      <c r="AS158">
+        <v>1.2</v>
+      </c>
+      <c r="AT158">
+        <v>2.6</v>
+      </c>
+      <c r="AU158">
+        <v>1.89</v>
+      </c>
+      <c r="AV158">
+        <v>1.87</v>
+      </c>
+      <c r="AW158">
+        <v>3.76</v>
+      </c>
+      <c r="AX158">
+        <v>0</v>
+      </c>
+      <c r="AY158">
+        <v>0</v>
+      </c>
+      <c r="AZ158">
+        <v>0</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>0</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>2</v>
+      </c>
+      <c r="BG158">
+        <v>9</v>
+      </c>
+      <c r="BH158">
+        <v>3</v>
+      </c>
+      <c r="BI158">
+        <v>8</v>
+      </c>
+      <c r="BJ158">
+        <v>5</v>
+      </c>
+      <c r="BK158">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2547074</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>77</v>
+      </c>
+      <c r="H159" t="s">
+        <v>69</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>186</v>
+      </c>
+      <c r="P159" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q159">
+        <v>1</v>
+      </c>
+      <c r="R159">
+        <v>9</v>
+      </c>
+      <c r="S159">
+        <v>10</v>
+      </c>
+      <c r="T159">
+        <v>2.25</v>
+      </c>
+      <c r="U159">
+        <v>2.3</v>
+      </c>
+      <c r="V159">
+        <v>4.33</v>
+      </c>
+      <c r="W159">
+        <v>1.34</v>
+      </c>
+      <c r="X159">
+        <v>2.99</v>
+      </c>
+      <c r="Y159">
+        <v>2.46</v>
+      </c>
+      <c r="Z159">
+        <v>1.51</v>
+      </c>
+      <c r="AA159">
+        <v>5.85</v>
+      </c>
+      <c r="AB159">
+        <v>1.1</v>
+      </c>
+      <c r="AC159">
+        <v>1.67</v>
+      </c>
+      <c r="AD159">
+        <v>3.6</v>
+      </c>
+      <c r="AE159">
+        <v>4.2</v>
+      </c>
+      <c r="AF159">
+        <v>1.03</v>
+      </c>
+      <c r="AG159">
+        <v>13</v>
+      </c>
+      <c r="AH159">
+        <v>1.19</v>
+      </c>
+      <c r="AI159">
+        <v>4</v>
+      </c>
+      <c r="AJ159">
+        <v>1.7</v>
+      </c>
+      <c r="AK159">
+        <v>2.1</v>
+      </c>
+      <c r="AL159">
+        <v>1.75</v>
+      </c>
+      <c r="AM159">
+        <v>1.92</v>
+      </c>
+      <c r="AN159">
+        <v>1.17</v>
+      </c>
+      <c r="AO159">
+        <v>1.22</v>
+      </c>
+      <c r="AP159">
+        <v>2.1</v>
+      </c>
+      <c r="AQ159">
+        <v>1.22</v>
+      </c>
+      <c r="AR159">
+        <v>0.5</v>
+      </c>
+      <c r="AS159">
+        <v>1.4</v>
+      </c>
+      <c r="AT159">
+        <v>0.45</v>
+      </c>
+      <c r="AU159">
+        <v>1.87</v>
+      </c>
+      <c r="AV159">
+        <v>1.46</v>
+      </c>
+      <c r="AW159">
+        <v>3.33</v>
+      </c>
+      <c r="AX159">
+        <v>0</v>
+      </c>
+      <c r="AY159">
+        <v>0</v>
+      </c>
+      <c r="AZ159">
+        <v>0</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>0</v>
+      </c>
+      <c r="BC159">
+        <v>0</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>4</v>
+      </c>
+      <c r="BG159">
+        <v>5</v>
+      </c>
+      <c r="BH159">
+        <v>6</v>
+      </c>
+      <c r="BI159">
+        <v>7</v>
+      </c>
+      <c r="BJ159">
+        <v>10</v>
+      </c>
+      <c r="BK159">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2547073</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>78</v>
+      </c>
+      <c r="H160" t="s">
+        <v>66</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>83</v>
+      </c>
+      <c r="P160" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q160">
+        <v>6</v>
+      </c>
+      <c r="R160">
+        <v>4</v>
+      </c>
+      <c r="S160">
+        <v>10</v>
+      </c>
+      <c r="T160">
+        <v>5</v>
+      </c>
+      <c r="U160">
+        <v>2.1</v>
+      </c>
+      <c r="V160">
+        <v>2.3</v>
+      </c>
+      <c r="W160">
+        <v>1.43</v>
+      </c>
+      <c r="X160">
+        <v>2.62</v>
+      </c>
+      <c r="Y160">
+        <v>3.04</v>
+      </c>
+      <c r="Z160">
+        <v>1.33</v>
+      </c>
+      <c r="AA160">
+        <v>7</v>
+      </c>
+      <c r="AB160">
+        <v>1.07</v>
+      </c>
+      <c r="AC160">
+        <v>4.75</v>
+      </c>
+      <c r="AD160">
+        <v>3.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.67</v>
+      </c>
+      <c r="AF160">
+        <v>1.02</v>
+      </c>
+      <c r="AG160">
+        <v>8.5</v>
+      </c>
+      <c r="AH160">
+        <v>1.33</v>
+      </c>
+      <c r="AI160">
+        <v>2.93</v>
+      </c>
+      <c r="AJ160">
+        <v>2.08</v>
+      </c>
+      <c r="AK160">
+        <v>1.73</v>
+      </c>
+      <c r="AL160">
+        <v>1.91</v>
+      </c>
+      <c r="AM160">
+        <v>1.76</v>
+      </c>
+      <c r="AN160">
+        <v>1.69</v>
+      </c>
+      <c r="AO160">
+        <v>1.28</v>
+      </c>
+      <c r="AP160">
+        <v>1.26</v>
+      </c>
+      <c r="AQ160">
+        <v>1.11</v>
+      </c>
+      <c r="AR160">
+        <v>1.67</v>
+      </c>
+      <c r="AS160">
+        <v>1</v>
+      </c>
+      <c r="AT160">
+        <v>1.8</v>
+      </c>
+      <c r="AU160">
+        <v>1.66</v>
+      </c>
+      <c r="AV160">
+        <v>1.6</v>
+      </c>
+      <c r="AW160">
+        <v>3.26</v>
+      </c>
+      <c r="AX160">
+        <v>0</v>
+      </c>
+      <c r="AY160">
+        <v>0</v>
+      </c>
+      <c r="AZ160">
+        <v>0</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>0</v>
+      </c>
+      <c r="BC160">
+        <v>0</v>
+      </c>
+      <c r="BD160">
+        <v>0</v>
+      </c>
+      <c r="BE160">
+        <v>0</v>
+      </c>
+      <c r="BF160">
+        <v>5</v>
+      </c>
+      <c r="BG160">
+        <v>5</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>6</v>
+      </c>
+      <c r="BJ160">
+        <v>9</v>
+      </c>
+      <c r="BK160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>2547072</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>65</v>
+      </c>
+      <c r="H161" t="s">
+        <v>70</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>123</v>
+      </c>
+      <c r="P161" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q161">
+        <v>9</v>
+      </c>
+      <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>3.2</v>
+      </c>
+      <c r="U161">
+        <v>2.1</v>
+      </c>
+      <c r="V161">
+        <v>3.1</v>
+      </c>
+      <c r="W161">
+        <v>1.38</v>
+      </c>
+      <c r="X161">
+        <v>2.81</v>
+      </c>
+      <c r="Y161">
+        <v>2.77</v>
+      </c>
+      <c r="Z161">
+        <v>1.39</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+      <c r="AC161">
+        <v>2.5</v>
+      </c>
+      <c r="AD161">
+        <v>3.4</v>
+      </c>
+      <c r="AE161">
+        <v>2.4</v>
+      </c>
+      <c r="AF161">
+        <v>1.01</v>
+      </c>
+      <c r="AG161">
+        <v>9.75</v>
+      </c>
+      <c r="AH161">
+        <v>1.23</v>
+      </c>
+      <c r="AI161">
+        <v>3.4</v>
+      </c>
+      <c r="AJ161">
+        <v>1.95</v>
+      </c>
+      <c r="AK161">
+        <v>1.85</v>
+      </c>
+      <c r="AL161">
+        <v>1.69</v>
+      </c>
+      <c r="AM161">
+        <v>2</v>
+      </c>
+      <c r="AN161">
+        <v>1.46</v>
+      </c>
+      <c r="AO161">
+        <v>1.28</v>
+      </c>
+      <c r="AP161">
+        <v>1.43</v>
+      </c>
+      <c r="AQ161">
+        <v>1.56</v>
+      </c>
+      <c r="AR161">
+        <v>1.78</v>
+      </c>
+      <c r="AS161">
+        <v>1.5</v>
+      </c>
+      <c r="AT161">
+        <v>1.7</v>
+      </c>
+      <c r="AU161">
+        <v>1.34</v>
+      </c>
+      <c r="AV161">
+        <v>1.47</v>
+      </c>
+      <c r="AW161">
+        <v>2.81</v>
+      </c>
+      <c r="AX161">
+        <v>0</v>
+      </c>
+      <c r="AY161">
+        <v>0</v>
+      </c>
+      <c r="AZ161">
+        <v>0</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>0</v>
+      </c>
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
+        <v>7</v>
+      </c>
+      <c r="BG161">
+        <v>3</v>
+      </c>
+      <c r="BH161">
+        <v>3</v>
+      </c>
+      <c r="BI161">
+        <v>5</v>
+      </c>
+      <c r="BJ161">
+        <v>10</v>
+      </c>
+      <c r="BK161">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT3" t="n">
         <v>1.4</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT6" t="n">
         <v>2.5</v>
@@ -1918,7 +1918,7 @@
         <v>0.9</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT8" t="n">
         <v>1.1</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT16" t="n">
         <v>0.45</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU18" t="n">
         <v>1.45</v>
@@ -4557,7 +4557,7 @@
         <v>1.2</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU20" t="n">
         <v>2.04</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU21" t="n">
         <v>1.59</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU23" t="n">
         <v>0.77</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT24" t="n">
         <v>1.1</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT31" t="n">
         <v>2.6</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU32" t="n">
         <v>1.32</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT35" t="n">
         <v>1.4</v>
@@ -7802,10 +7802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU36" t="n">
         <v>1.15</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT37" t="n">
         <v>1.1</v>
@@ -8211,7 +8211,7 @@
         <v>0.9</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -8414,7 +8414,7 @@
         <v>1.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU39" t="n">
         <v>2.07</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT40" t="n">
         <v>1.3</v>
@@ -10644,10 +10644,10 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU50" t="n">
         <v>1.41</v>
@@ -10847,10 +10847,10 @@
         <v>2.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU51" t="n">
         <v>1.91</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT52" t="n">
         <v>1.1</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT53" t="n">
         <v>1.1</v>
@@ -11456,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU54" t="n">
         <v>1.6</v>
@@ -11662,7 +11662,7 @@
         <v>1.8</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU55" t="n">
         <v>1.37</v>
@@ -11865,7 +11865,7 @@
         <v>0.9</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -12877,7 +12877,7 @@
         <v>2.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT61" t="n">
         <v>1.7</v>
@@ -13286,7 +13286,7 @@
         <v>1.64</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU63" t="n">
         <v>1.43</v>
@@ -13486,10 +13486,10 @@
         <v>1.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU64" t="n">
         <v>1.88</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT65" t="n">
         <v>1.6</v>
@@ -14098,7 +14098,7 @@
         <v>0.9</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14501,7 +14501,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT69" t="n">
         <v>1.3</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU70" t="n">
         <v>1.58</v>
@@ -15113,7 +15113,7 @@
         <v>1.4</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU72" t="n">
         <v>1.65</v>
@@ -15516,7 +15516,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT74" t="n">
         <v>0.45</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT81" t="n">
         <v>1.1</v>
@@ -17346,7 +17346,7 @@
         <v>1.2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU83" t="n">
         <v>2.15</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU85" t="n">
         <v>1.97</v>
@@ -17952,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU86" t="n">
         <v>1.75</v>
@@ -18155,7 +18155,7 @@
         <v>2</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT87" t="n">
         <v>1.7</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU88" t="n">
         <v>1.38</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT93" t="n">
         <v>0.45</v>
@@ -19782,7 +19782,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU95" t="n">
         <v>1.27</v>
@@ -19982,7 +19982,7 @@
         <v>2.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT96" t="n">
         <v>2.6</v>
@@ -20185,7 +20185,7 @@
         <v>1.2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT97" t="n">
         <v>1.6</v>
@@ -20388,10 +20388,10 @@
         <v>0.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU98" t="n">
         <v>1.86</v>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU102" t="n">
         <v>1.4</v>
@@ -21406,7 +21406,7 @@
         <v>1.4</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU103" t="n">
         <v>1.74</v>
@@ -21809,10 +21809,10 @@
         <v>0.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU105" t="n">
         <v>1.56</v>
@@ -22012,7 +22012,7 @@
         <v>2.43</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT106" t="n">
         <v>2.6</v>
@@ -22218,7 +22218,7 @@
         <v>1.64</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU107" t="n">
         <v>1.69</v>
@@ -22824,7 +22824,7 @@
         <v>0.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT110" t="n">
         <v>1.4</v>
@@ -23030,7 +23030,7 @@
         <v>1.2</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU111" t="n">
         <v>1.77</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT113" t="n">
         <v>2</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT114" t="n">
         <v>1.8</v>
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU115" t="n">
         <v>1.38</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU118" t="n">
         <v>1.56</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT120" t="n">
         <v>1.7</v>
@@ -25060,7 +25060,7 @@
         <v>1.8</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU121" t="n">
         <v>1.63</v>
@@ -25466,7 +25466,7 @@
         <v>1.4</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU123" t="n">
         <v>1.83</v>
@@ -25666,7 +25666,7 @@
         <v>1.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT124" t="n">
         <v>1.8</v>
@@ -26075,7 +26075,7 @@
         <v>1.64</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU126" t="n">
         <v>1.81</v>
@@ -26681,7 +26681,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT129" t="n">
         <v>0.45</v>
@@ -26887,7 +26887,7 @@
         <v>2</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU130" t="n">
         <v>1.93</v>
@@ -27293,7 +27293,7 @@
         <v>1.2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU132" t="n">
         <v>1.76</v>
@@ -27493,10 +27493,10 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU133" t="n">
         <v>1.37</v>
@@ -27699,7 +27699,7 @@
         <v>1</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU134" t="n">
         <v>1.33</v>
@@ -28102,7 +28102,7 @@
         <v>1.13</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT136" t="n">
         <v>1.3</v>
@@ -28305,7 +28305,7 @@
         <v>2.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT137" t="n">
         <v>2.6</v>
@@ -28917,7 +28917,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU140" t="n">
         <v>1.34</v>
@@ -29726,7 +29726,7 @@
         <v>1.75</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT144" t="n">
         <v>2</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT145" t="n">
         <v>1.4</v>
@@ -30135,7 +30135,7 @@
         <v>1.8</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU146" t="n">
         <v>1.64</v>
@@ -30335,7 +30335,7 @@
         <v>1.11</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT147" t="n">
         <v>1.3</v>
@@ -30538,10 +30538,10 @@
         <v>0.75</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU148" t="n">
         <v>1.94</v>
@@ -30741,10 +30741,10 @@
         <v>1.22</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU149" t="n">
         <v>1.48</v>
@@ -31353,7 +31353,7 @@
         <v>0.9</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU152" t="n">
         <v>1.48</v>
@@ -31553,7 +31553,7 @@
         <v>0.89</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT153" t="n">
         <v>1.1</v>
@@ -31962,7 +31962,7 @@
         <v>1.64</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU155" t="n">
         <v>1.86</v>
@@ -32365,7 +32365,7 @@
         <v>2.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT157" t="n">
         <v>2.5</v>
@@ -33232,6 +33232,1021 @@
       </c>
       <c r="BK161" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2547083</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45002.5625</v>
+      </c>
+      <c r="F162" t="n">
+        <v>21</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Krka</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>10</v>
+      </c>
+      <c r="R162" t="n">
+        <v>4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>14</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V162" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2547079</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45002.58333333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Aluminij</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>11</v>
+      </c>
+      <c r="R163" t="n">
+        <v>4</v>
+      </c>
+      <c r="S163" t="n">
+        <v>15</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2547085</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>21</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Dob</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>5</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>8</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2547078</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Brinje-Grosuplje</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>4</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2</v>
+      </c>
+      <c r="S165" t="n">
+        <v>6</v>
+      </c>
+      <c r="T165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2547082</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Krško</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Bistrica</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K166" t="n">
+        <v>4</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['5', '19']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['29', '33']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>6</v>
+      </c>
+      <c r="R166" t="n">
+        <v>3</v>
+      </c>
+      <c r="S166" t="n">
+        <v>9</v>
+      </c>
+      <c r="T166" t="n">
+        <v>3</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
@@ -523,25 +523,25 @@
     <t>['28', '44']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['15', '36', '47', '62', '68']</t>
   </si>
   <si>
     <t>['45+1', '78']</t>
   </si>
   <si>
-    <t>['47']</t>
-  </si>
-  <si>
     <t>['37', '56']</t>
-  </si>
-  <si>
-    <t>['23', '86']</t>
   </si>
   <si>
     <t>['30', '44', '50', '71', '87']</t>
   </si>
   <si>
     <t>['71', '82']</t>
+  </si>
+  <si>
+    <t>['23', '86']</t>
   </si>
   <si>
     <t>['37', '54', '69', '90+3']</t>
@@ -562,10 +562,10 @@
     <t>['33', '87']</t>
   </si>
   <si>
-    <t>['90']</t>
+    <t>['25', '26']</t>
   </si>
   <si>
-    <t>['25', '26']</t>
+    <t>['90']</t>
   </si>
   <si>
     <t>['77']</t>
@@ -577,10 +577,10 @@
     <t>['6', '45']</t>
   </si>
   <si>
-    <t>['40']</t>
+    <t>['5', '19']</t>
   </si>
   <si>
-    <t>['5', '19']</t>
+    <t>['40']</t>
   </si>
   <si>
     <t>['8', '76']</t>
@@ -799,13 +799,13 @@
     <t>['29', '44', '83', '90+2']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['14', '39', '45']</t>
   </si>
   <si>
     <t>['20', '53', '58']</t>
-  </si>
-  <si>
-    <t>['16']</t>
   </si>
   <si>
     <t>['53', '65']</t>
@@ -838,10 +838,10 @@
     <t>['19', '89']</t>
   </si>
   <si>
-    <t>['23', '39']</t>
+    <t>['21', '44']</t>
   </si>
   <si>
-    <t>['21', '44']</t>
+    <t>['23', '39']</t>
   </si>
   <si>
     <t>['41', '62']</t>
@@ -859,10 +859,10 @@
     <t>['23']</t>
   </si>
   <si>
-    <t>['2', '79']</t>
+    <t>['15', '80']</t>
   </si>
   <si>
-    <t>['15', '80']</t>
+    <t>['2', '79']</t>
   </si>
 </sst>
 </file>
@@ -20759,7 +20759,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -25343,7 +25343,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25874,7 +25874,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2547044</v>
+        <v>2547050</v>
       </c>
       <c r="C130" t="s">
         <v>63</v>
@@ -25889,28 +25889,28 @@
         <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H130" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N130">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O130" t="s">
         <v>169</v>
@@ -25922,142 +25922,142 @@
         <v>4</v>
       </c>
       <c r="R130">
+        <v>12</v>
+      </c>
+      <c r="S130">
+        <v>16</v>
+      </c>
+      <c r="T130">
+        <v>3.2</v>
+      </c>
+      <c r="U130">
+        <v>2.05</v>
+      </c>
+      <c r="V130">
+        <v>3.25</v>
+      </c>
+      <c r="W130">
+        <v>1.45</v>
+      </c>
+      <c r="X130">
+        <v>2.56</v>
+      </c>
+      <c r="Y130">
+        <v>3.14</v>
+      </c>
+      <c r="Z130">
+        <v>1.31</v>
+      </c>
+      <c r="AA130">
+        <v>7.3</v>
+      </c>
+      <c r="AB130">
+        <v>1.06</v>
+      </c>
+      <c r="AC130">
+        <v>2.45</v>
+      </c>
+      <c r="AD130">
+        <v>3.2</v>
+      </c>
+      <c r="AE130">
+        <v>2.55</v>
+      </c>
+      <c r="AF130">
+        <v>1.07</v>
+      </c>
+      <c r="AG130">
         <v>7</v>
       </c>
-      <c r="S130">
+      <c r="AH130">
+        <v>1.34</v>
+      </c>
+      <c r="AI130">
+        <v>2.82</v>
+      </c>
+      <c r="AJ130">
+        <v>2.15</v>
+      </c>
+      <c r="AK130">
+        <v>1.67</v>
+      </c>
+      <c r="AL130">
+        <v>1.85</v>
+      </c>
+      <c r="AM130">
+        <v>1.85</v>
+      </c>
+      <c r="AN130">
+        <v>1.42</v>
+      </c>
+      <c r="AO130">
+        <v>1.3</v>
+      </c>
+      <c r="AP130">
+        <v>1.45</v>
+      </c>
+      <c r="AQ130">
+        <v>1.25</v>
+      </c>
+      <c r="AR130">
+        <v>1.25</v>
+      </c>
+      <c r="AS130">
+        <v>1.2</v>
+      </c>
+      <c r="AT130">
+        <v>1.09</v>
+      </c>
+      <c r="AU130">
+        <v>1.76</v>
+      </c>
+      <c r="AV130">
+        <v>1.26</v>
+      </c>
+      <c r="AW130">
+        <v>3.02</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>7</v>
+      </c>
+      <c r="BG130">
+        <v>4</v>
+      </c>
+      <c r="BH130">
+        <v>7</v>
+      </c>
+      <c r="BI130">
+        <v>7</v>
+      </c>
+      <c r="BJ130">
+        <v>14</v>
+      </c>
+      <c r="BK130">
         <v>11</v>
-      </c>
-      <c r="T130">
-        <v>2.25</v>
-      </c>
-      <c r="U130">
-        <v>2.3</v>
-      </c>
-      <c r="V130">
-        <v>4.33</v>
-      </c>
-      <c r="W130">
-        <v>1.32</v>
-      </c>
-      <c r="X130">
-        <v>3.08</v>
-      </c>
-      <c r="Y130">
-        <v>2.54</v>
-      </c>
-      <c r="Z130">
-        <v>1.46</v>
-      </c>
-      <c r="AA130">
-        <v>5.4</v>
-      </c>
-      <c r="AB130">
-        <v>1.11</v>
-      </c>
-      <c r="AC130">
-        <v>1.67</v>
-      </c>
-      <c r="AD130">
-        <v>3.75</v>
-      </c>
-      <c r="AE130">
-        <v>4.2</v>
-      </c>
-      <c r="AF130">
-        <v>1.02</v>
-      </c>
-      <c r="AG130">
-        <v>12</v>
-      </c>
-      <c r="AH130">
-        <v>1.2</v>
-      </c>
-      <c r="AI130">
-        <v>4</v>
-      </c>
-      <c r="AJ130">
-        <v>1.75</v>
-      </c>
-      <c r="AK130">
-        <v>2.05</v>
-      </c>
-      <c r="AL130">
-        <v>1.73</v>
-      </c>
-      <c r="AM130">
-        <v>2.05</v>
-      </c>
-      <c r="AN130">
-        <v>1.12</v>
-      </c>
-      <c r="AO130">
-        <v>1.2</v>
-      </c>
-      <c r="AP130">
-        <v>2.3</v>
-      </c>
-      <c r="AQ130">
-        <v>2.13</v>
-      </c>
-      <c r="AR130">
-        <v>0.86</v>
-      </c>
-      <c r="AS130">
-        <v>1.82</v>
-      </c>
-      <c r="AT130">
-        <v>0.7</v>
-      </c>
-      <c r="AU130">
-        <v>1.93</v>
-      </c>
-      <c r="AV130">
-        <v>1.89</v>
-      </c>
-      <c r="AW130">
-        <v>3.82</v>
-      </c>
-      <c r="AX130">
-        <v>0</v>
-      </c>
-      <c r="AY130">
-        <v>0</v>
-      </c>
-      <c r="AZ130">
-        <v>0</v>
-      </c>
-      <c r="BA130">
-        <v>0</v>
-      </c>
-      <c r="BB130">
-        <v>0</v>
-      </c>
-      <c r="BC130">
-        <v>0</v>
-      </c>
-      <c r="BD130">
-        <v>0</v>
-      </c>
-      <c r="BE130">
-        <v>0</v>
-      </c>
-      <c r="BF130">
-        <v>10</v>
-      </c>
-      <c r="BG130">
-        <v>8</v>
-      </c>
-      <c r="BH130">
-        <v>3</v>
-      </c>
-      <c r="BI130">
-        <v>8</v>
-      </c>
-      <c r="BJ130">
-        <v>13</v>
-      </c>
-      <c r="BK130">
-        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:63">
@@ -26065,7 +26065,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2547045</v>
+        <v>2547044</v>
       </c>
       <c r="C131" t="s">
         <v>63</v>
@@ -26080,28 +26080,28 @@
         <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H131" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M131">
         <v>3</v>
       </c>
       <c r="N131">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O131" t="s">
         <v>170</v>
@@ -26110,145 +26110,145 @@
         <v>262</v>
       </c>
       <c r="Q131">
+        <v>4</v>
+      </c>
+      <c r="R131">
+        <v>7</v>
+      </c>
+      <c r="S131">
+        <v>11</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
+        <v>2.3</v>
+      </c>
+      <c r="V131">
+        <v>4.33</v>
+      </c>
+      <c r="W131">
+        <v>1.32</v>
+      </c>
+      <c r="X131">
+        <v>3.08</v>
+      </c>
+      <c r="Y131">
+        <v>2.54</v>
+      </c>
+      <c r="Z131">
+        <v>1.46</v>
+      </c>
+      <c r="AA131">
+        <v>5.4</v>
+      </c>
+      <c r="AB131">
+        <v>1.11</v>
+      </c>
+      <c r="AC131">
+        <v>1.67</v>
+      </c>
+      <c r="AD131">
+        <v>3.75</v>
+      </c>
+      <c r="AE131">
+        <v>4.2</v>
+      </c>
+      <c r="AF131">
+        <v>1.02</v>
+      </c>
+      <c r="AG131">
+        <v>12</v>
+      </c>
+      <c r="AH131">
+        <v>1.2</v>
+      </c>
+      <c r="AI131">
+        <v>4</v>
+      </c>
+      <c r="AJ131">
+        <v>1.75</v>
+      </c>
+      <c r="AK131">
+        <v>2.05</v>
+      </c>
+      <c r="AL131">
+        <v>1.73</v>
+      </c>
+      <c r="AM131">
+        <v>2.05</v>
+      </c>
+      <c r="AN131">
+        <v>1.12</v>
+      </c>
+      <c r="AO131">
+        <v>1.2</v>
+      </c>
+      <c r="AP131">
+        <v>2.3</v>
+      </c>
+      <c r="AQ131">
+        <v>2.13</v>
+      </c>
+      <c r="AR131">
+        <v>0.86</v>
+      </c>
+      <c r="AS131">
+        <v>1.82</v>
+      </c>
+      <c r="AT131">
+        <v>0.7</v>
+      </c>
+      <c r="AU131">
+        <v>1.93</v>
+      </c>
+      <c r="AV131">
+        <v>1.89</v>
+      </c>
+      <c r="AW131">
+        <v>3.82</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>10</v>
+      </c>
+      <c r="BG131">
         <v>8</v>
       </c>
-      <c r="R131">
-        <v>5</v>
-      </c>
-      <c r="S131">
+      <c r="BH131">
+        <v>3</v>
+      </c>
+      <c r="BI131">
+        <v>8</v>
+      </c>
+      <c r="BJ131">
         <v>13</v>
       </c>
-      <c r="T131">
-        <v>3.1</v>
-      </c>
-      <c r="U131">
-        <v>2.1</v>
-      </c>
-      <c r="V131">
-        <v>3.1</v>
-      </c>
-      <c r="W131">
-        <v>1.36</v>
-      </c>
-      <c r="X131">
-        <v>2.9</v>
-      </c>
-      <c r="Y131">
-        <v>2.85</v>
-      </c>
-      <c r="Z131">
-        <v>1.36</v>
-      </c>
-      <c r="AA131">
-        <v>6.3</v>
-      </c>
-      <c r="AB131">
-        <v>1.09</v>
-      </c>
-      <c r="AC131">
-        <v>2.6</v>
-      </c>
-      <c r="AD131">
-        <v>3.1</v>
-      </c>
-      <c r="AE131">
-        <v>2.5</v>
-      </c>
-      <c r="AF131">
-        <v>1.04</v>
-      </c>
-      <c r="AG131">
-        <v>11</v>
-      </c>
-      <c r="AH131">
-        <v>1.25</v>
-      </c>
-      <c r="AI131">
-        <v>3.6</v>
-      </c>
-      <c r="AJ131">
-        <v>1.95</v>
-      </c>
-      <c r="AK131">
-        <v>1.85</v>
-      </c>
-      <c r="AL131">
-        <v>1.68</v>
-      </c>
-      <c r="AM131">
-        <v>2.07</v>
-      </c>
-      <c r="AN131">
-        <v>1.52</v>
-      </c>
-      <c r="AO131">
-        <v>1.26</v>
-      </c>
-      <c r="AP131">
-        <v>1.35</v>
-      </c>
-      <c r="AQ131">
-        <v>1.88</v>
-      </c>
-      <c r="AR131">
-        <v>2.38</v>
-      </c>
-      <c r="AS131">
-        <v>1.8</v>
-      </c>
-      <c r="AT131">
-        <v>2.5</v>
-      </c>
-      <c r="AU131">
-        <v>1.64</v>
-      </c>
-      <c r="AV131">
-        <v>1.49</v>
-      </c>
-      <c r="AW131">
-        <v>3.13</v>
-      </c>
-      <c r="AX131">
-        <v>0</v>
-      </c>
-      <c r="AY131">
-        <v>0</v>
-      </c>
-      <c r="AZ131">
-        <v>0</v>
-      </c>
-      <c r="BA131">
-        <v>0</v>
-      </c>
-      <c r="BB131">
-        <v>0</v>
-      </c>
-      <c r="BC131">
-        <v>0</v>
-      </c>
-      <c r="BD131">
-        <v>0</v>
-      </c>
-      <c r="BE131">
-        <v>0</v>
-      </c>
-      <c r="BF131">
-        <v>7</v>
-      </c>
-      <c r="BG131">
-        <v>7</v>
-      </c>
-      <c r="BH131">
-        <v>4</v>
-      </c>
-      <c r="BI131">
-        <v>3</v>
-      </c>
-      <c r="BJ131">
-        <v>11</v>
-      </c>
       <c r="BK131">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:63">
@@ -26256,7 +26256,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2547050</v>
+        <v>2547045</v>
       </c>
       <c r="C132" t="s">
         <v>63</v>
@@ -26271,28 +26271,28 @@
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H132" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>1</v>
       </c>
       <c r="K132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O132" t="s">
         <v>171</v>
@@ -26301,103 +26301,103 @@
         <v>263</v>
       </c>
       <c r="Q132">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R132">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S132">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T132">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U132">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V132">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="W132">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="X132">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="Y132">
-        <v>3.14</v>
+        <v>2.85</v>
       </c>
       <c r="Z132">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AA132">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="AB132">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AC132">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AD132">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE132">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AF132">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AG132">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH132">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AI132">
-        <v>2.82</v>
+        <v>3.6</v>
       </c>
       <c r="AJ132">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AK132">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AL132">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AM132">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="AN132">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AO132">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AP132">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AQ132">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AR132">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="AS132">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AT132">
-        <v>1.09</v>
+        <v>2.5</v>
       </c>
       <c r="AU132">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="AV132">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AW132">
-        <v>3.02</v>
+        <v>3.13</v>
       </c>
       <c r="AX132">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>7</v>
       </c>
       <c r="BG132">
+        <v>7</v>
+      </c>
+      <c r="BH132">
         <v>4</v>
       </c>
-      <c r="BH132">
-        <v>7</v>
-      </c>
       <c r="BI132">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ132">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK132">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:63">
@@ -26638,7 +26638,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2547051</v>
+        <v>2547048</v>
       </c>
       <c r="C134" t="s">
         <v>63</v>
@@ -26653,133 +26653,133 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H134" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O134" t="s">
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="Q134">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R134">
         <v>5</v>
       </c>
       <c r="S134">
+        <v>14</v>
+      </c>
+      <c r="T134">
+        <v>3.1</v>
+      </c>
+      <c r="U134">
+        <v>2.2</v>
+      </c>
+      <c r="V134">
+        <v>3.1</v>
+      </c>
+      <c r="W134">
+        <v>1.3</v>
+      </c>
+      <c r="X134">
+        <v>3.2</v>
+      </c>
+      <c r="Y134">
+        <v>2.62</v>
+      </c>
+      <c r="Z134">
+        <v>1.44</v>
+      </c>
+      <c r="AA134">
         <v>6</v>
       </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
-      <c r="U134">
-        <v>2.1</v>
-      </c>
-      <c r="V134">
-        <v>3.5</v>
-      </c>
-      <c r="W134">
-        <v>1.36</v>
-      </c>
-      <c r="X134">
-        <v>2.88</v>
-      </c>
-      <c r="Y134">
-        <v>2.75</v>
-      </c>
-      <c r="Z134">
-        <v>1.38</v>
-      </c>
-      <c r="AA134">
-        <v>6.5</v>
-      </c>
       <c r="AB134">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC134">
-        <v>2.15</v>
+        <v>2.44</v>
       </c>
       <c r="AD134">
         <v>3.4</v>
       </c>
       <c r="AE134">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="AF134">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG134">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH134">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AI134">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AJ134">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AK134">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AL134">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="AM134">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="AN134">
         <v>1.45</v>
       </c>
       <c r="AO134">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP134">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AQ134">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AR134">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AS134">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT134">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU134">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AV134">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AW134">
-        <v>2.66</v>
+        <v>2.89</v>
       </c>
       <c r="AX134">
         <v>0</v>
@@ -26806,22 +26806,22 @@
         <v>0</v>
       </c>
       <c r="BF134">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG134">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH134">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ134">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BK134">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:63">
@@ -26829,7 +26829,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2547048</v>
+        <v>2547049</v>
       </c>
       <c r="C135" t="s">
         <v>63</v>
@@ -26844,133 +26844,133 @@
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H135" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M135">
         <v>2</v>
       </c>
       <c r="N135">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O135" t="s">
         <v>174</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q135">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S135">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T135">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V135">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W135">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X135">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="Y135">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Z135">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA135">
         <v>6</v>
       </c>
       <c r="AB135">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC135">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AD135">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE135">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="AF135">
         <v>1.02</v>
       </c>
       <c r="AG135">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH135">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AI135">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ135">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AK135">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AL135">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AM135">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AN135">
+        <v>1.36</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>1.53</v>
+      </c>
+      <c r="AQ135">
+        <v>1.25</v>
+      </c>
+      <c r="AR135">
+        <v>1.13</v>
+      </c>
+      <c r="AS135">
+        <v>1.27</v>
+      </c>
+      <c r="AT135">
+        <v>1.3</v>
+      </c>
+      <c r="AU135">
         <v>1.45</v>
       </c>
-      <c r="AO135">
-        <v>1.29</v>
-      </c>
-      <c r="AP135">
-        <v>1.4</v>
-      </c>
-      <c r="AQ135">
-        <v>0.38</v>
-      </c>
-      <c r="AR135">
-        <v>1</v>
-      </c>
-      <c r="AS135">
-        <v>0.91</v>
-      </c>
-      <c r="AT135">
-        <v>1.27</v>
-      </c>
-      <c r="AU135">
-        <v>1.43</v>
-      </c>
       <c r="AV135">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AW135">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="AX135">
         <v>0</v>
@@ -27000,19 +27000,19 @@
         <v>7</v>
       </c>
       <c r="BG135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH135">
+        <v>5</v>
+      </c>
+      <c r="BI135">
         <v>8</v>
       </c>
-      <c r="BI135">
-        <v>5</v>
-      </c>
       <c r="BJ135">
+        <v>12</v>
+      </c>
+      <c r="BK135">
         <v>15</v>
-      </c>
-      <c r="BK135">
-        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:63">
@@ -27020,7 +27020,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2547049</v>
+        <v>2547051</v>
       </c>
       <c r="C136" t="s">
         <v>63</v>
@@ -27035,16 +27035,16 @@
         <v>17</v>
       </c>
       <c r="G136" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H136" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <v>1</v>
@@ -27053,115 +27053,115 @@
         <v>2</v>
       </c>
       <c r="M136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O136" t="s">
         <v>175</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c r="Q136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S136">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T136">
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="V136">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="W136">
+        <v>1.36</v>
+      </c>
+      <c r="X136">
+        <v>2.88</v>
+      </c>
+      <c r="Y136">
+        <v>2.75</v>
+      </c>
+      <c r="Z136">
+        <v>1.38</v>
+      </c>
+      <c r="AA136">
+        <v>6.5</v>
+      </c>
+      <c r="AB136">
+        <v>1.08</v>
+      </c>
+      <c r="AC136">
+        <v>2.15</v>
+      </c>
+      <c r="AD136">
+        <v>3.4</v>
+      </c>
+      <c r="AE136">
+        <v>2.88</v>
+      </c>
+      <c r="AF136">
+        <v>1.04</v>
+      </c>
+      <c r="AG136">
+        <v>9.5</v>
+      </c>
+      <c r="AH136">
         <v>1.29</v>
       </c>
-      <c r="X136">
-        <v>3.24</v>
-      </c>
-      <c r="Y136">
-        <v>2.5</v>
-      </c>
-      <c r="Z136">
-        <v>1.5</v>
-      </c>
-      <c r="AA136">
-        <v>6</v>
-      </c>
-      <c r="AB136">
-        <v>1.11</v>
-      </c>
-      <c r="AC136">
-        <v>2.2</v>
-      </c>
-      <c r="AD136">
+      <c r="AI136">
         <v>3.3</v>
       </c>
-      <c r="AE136">
-        <v>2.8</v>
-      </c>
-      <c r="AF136">
-        <v>1.02</v>
-      </c>
-      <c r="AG136">
-        <v>13</v>
-      </c>
-      <c r="AH136">
-        <v>1.17</v>
-      </c>
-      <c r="AI136">
-        <v>4.5</v>
-      </c>
       <c r="AJ136">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AK136">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AL136">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="AM136">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AN136">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AO136">
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AQ136">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AR136">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AS136">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AT136">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AU136">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AV136">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AW136">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="AX136">
         <v>0</v>
@@ -27188,22 +27188,22 @@
         <v>0</v>
       </c>
       <c r="BF136">
+        <v>4</v>
+      </c>
+      <c r="BG136">
+        <v>3</v>
+      </c>
+      <c r="BH136">
+        <v>3</v>
+      </c>
+      <c r="BI136">
+        <v>4</v>
+      </c>
+      <c r="BJ136">
         <v>7</v>
       </c>
-      <c r="BG136">
+      <c r="BK136">
         <v>7</v>
-      </c>
-      <c r="BH136">
-        <v>5</v>
-      </c>
-      <c r="BI136">
-        <v>8</v>
-      </c>
-      <c r="BJ136">
-        <v>12</v>
-      </c>
-      <c r="BK136">
-        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:63">
@@ -29503,7 +29503,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2547066</v>
+        <v>2547067</v>
       </c>
       <c r="C149" t="s">
         <v>63</v>
@@ -29518,43 +29518,43 @@
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H149" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>83</v>
+      </c>
+      <c r="P149" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q149">
         <v>3</v>
       </c>
-      <c r="O149" t="s">
-        <v>182</v>
-      </c>
-      <c r="P149" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q149">
+      <c r="R149">
         <v>6</v>
       </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
       <c r="S149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T149">
         <v>2.75</v>
@@ -29563,19 +29563,19 @@
         <v>2.2</v>
       </c>
       <c r="V149">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W149">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X149">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="Y149">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Z149">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AA149">
         <v>6.15</v>
@@ -29584,19 +29584,19 @@
         <v>1.09</v>
       </c>
       <c r="AC149">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AD149">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AE149">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="AF149">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG149">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AH149">
         <v>1.25</v>
@@ -29605,46 +29605,46 @@
         <v>3.44</v>
       </c>
       <c r="AJ149">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="AK149">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AL149">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AM149">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="AN149">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO149">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP149">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ149">
         <v>1.22</v>
       </c>
       <c r="AR149">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AS149">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AT149">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="AU149">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
       <c r="AV149">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="AW149">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="AX149">
         <v>0</v>
@@ -29671,22 +29671,22 @@
         <v>0</v>
       </c>
       <c r="BF149">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BG149">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH149">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BI149">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BJ149">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BK149">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:63">
@@ -29694,7 +29694,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2547067</v>
+        <v>2547065</v>
       </c>
       <c r="C150" t="s">
         <v>63</v>
@@ -29709,79 +29709,79 @@
         <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H150" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M150">
         <v>0</v>
       </c>
       <c r="N150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O150" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="P150" t="s">
         <v>83</v>
       </c>
       <c r="Q150">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R150">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S150">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U150">
         <v>2.2</v>
       </c>
       <c r="V150">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="W150">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X150">
-        <v>2.47</v>
+        <v>2.41</v>
       </c>
       <c r="Y150">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="Z150">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="AA150">
-        <v>6.15</v>
+        <v>6.85</v>
       </c>
       <c r="AB150">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AC150">
         <v>2.1</v>
       </c>
       <c r="AD150">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AE150">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="AF150">
         <v>1.04</v>
@@ -29790,52 +29790,52 @@
         <v>10.75</v>
       </c>
       <c r="AH150">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AI150">
-        <v>3.44</v>
+        <v>3</v>
       </c>
       <c r="AJ150">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="AK150">
+        <v>1.68</v>
+      </c>
+      <c r="AL150">
         <v>1.77</v>
       </c>
-      <c r="AL150">
-        <v>1.71</v>
-      </c>
       <c r="AM150">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AN150">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO150">
         <v>1.25</v>
       </c>
       <c r="AP150">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ150">
+        <v>0.67</v>
+      </c>
+      <c r="AR150">
         <v>1.22</v>
       </c>
-      <c r="AR150">
-        <v>1.11</v>
-      </c>
       <c r="AS150">
-        <v>1.2</v>
+        <v>0.91</v>
       </c>
       <c r="AT150">
         <v>1.09</v>
       </c>
       <c r="AU150">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
       <c r="AV150">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AW150">
-        <v>2.91</v>
+        <v>2.76</v>
       </c>
       <c r="AX150">
         <v>0</v>
@@ -29862,22 +29862,22 @@
         <v>0</v>
       </c>
       <c r="BF150">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG150">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH150">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI150">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ150">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK150">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:63">
@@ -29927,7 +29927,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30076,7 +30076,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2547065</v>
+        <v>2547066</v>
       </c>
       <c r="C152" t="s">
         <v>63</v>
@@ -30091,133 +30091,133 @@
         <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H152" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K152">
         <v>2</v>
       </c>
       <c r="L152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O152" t="s">
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="Q152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T152">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
         <v>2.2</v>
       </c>
       <c r="V152">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="W152">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X152">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="Y152">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="Z152">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AA152">
-        <v>6.85</v>
+        <v>6.15</v>
       </c>
       <c r="AB152">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AC152">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AD152">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AE152">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="AF152">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG152">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AH152">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AI152">
-        <v>3</v>
+        <v>3.44</v>
       </c>
       <c r="AJ152">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="AK152">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AL152">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AM152">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AN152">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AO152">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP152">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AQ152">
-        <v>0.67</v>
+        <v>1.22</v>
       </c>
       <c r="AR152">
         <v>1.22</v>
       </c>
       <c r="AS152">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AT152">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU152">
         <v>1.48</v>
       </c>
       <c r="AV152">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AW152">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="AX152">
         <v>0</v>
@@ -30244,22 +30244,22 @@
         <v>0</v>
       </c>
       <c r="BF152">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH152">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI152">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ152">
         <v>14</v>
       </c>
       <c r="BK152">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:63">
@@ -32368,7 +32368,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2547085</v>
+        <v>2547082</v>
       </c>
       <c r="C164" t="s">
         <v>63</v>
@@ -32383,70 +32383,70 @@
         <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H164" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O164" t="s">
         <v>187</v>
       </c>
       <c r="P164" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="Q164">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R164">
         <v>3</v>
       </c>
       <c r="S164">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="W164">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="X164">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y164">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Z164">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AA164">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="AB164">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC164">
         <v>2.3</v>
@@ -32455,61 +32455,61 @@
         <v>3.4</v>
       </c>
       <c r="AE164">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AF164">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG164">
         <v>8</v>
       </c>
       <c r="AH164">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AI164">
-        <v>3.65</v>
+        <v>3.08</v>
       </c>
       <c r="AJ164">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AK164">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AL164">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AM164">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="AN164">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AO164">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AP164">
         <v>1.5</v>
       </c>
       <c r="AQ164">
+        <v>1.11</v>
+      </c>
+      <c r="AR164">
         <v>1.1</v>
       </c>
-      <c r="AR164">
-        <v>0.4</v>
-      </c>
       <c r="AS164">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AT164">
-        <v>0.36</v>
+        <v>1.09</v>
       </c>
       <c r="AU164">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="AV164">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AW164">
-        <v>2.93</v>
+        <v>2.97</v>
       </c>
       <c r="AX164">
         <v>0</v>
@@ -32536,22 +32536,22 @@
         <v>0</v>
       </c>
       <c r="BF164">
+        <v>5</v>
+      </c>
+      <c r="BG164">
+        <v>8</v>
+      </c>
+      <c r="BH164">
+        <v>2</v>
+      </c>
+      <c r="BI164">
+        <v>9</v>
+      </c>
+      <c r="BJ164">
         <v>7</v>
       </c>
-      <c r="BG164">
-        <v>0</v>
-      </c>
-      <c r="BH164">
-        <v>6</v>
-      </c>
-      <c r="BI164">
-        <v>7</v>
-      </c>
-      <c r="BJ164">
-        <v>13</v>
-      </c>
       <c r="BK164">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:63">
@@ -32559,7 +32559,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2547078</v>
+        <v>2547085</v>
       </c>
       <c r="C165" t="s">
         <v>63</v>
@@ -32574,10 +32574,10 @@
         <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H165" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -32598,151 +32598,151 @@
         <v>1</v>
       </c>
       <c r="O165" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P165" t="s">
         <v>83</v>
       </c>
       <c r="Q165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S165">
+        <v>8</v>
+      </c>
+      <c r="T165">
+        <v>3</v>
+      </c>
+      <c r="U165">
+        <v>2.2</v>
+      </c>
+      <c r="V165">
+        <v>3.2</v>
+      </c>
+      <c r="W165">
+        <v>1.33</v>
+      </c>
+      <c r="X165">
+        <v>3</v>
+      </c>
+      <c r="Y165">
+        <v>2.55</v>
+      </c>
+      <c r="Z165">
+        <v>1.46</v>
+      </c>
+      <c r="AA165">
+        <v>5.9</v>
+      </c>
+      <c r="AB165">
+        <v>1.1</v>
+      </c>
+      <c r="AC165">
+        <v>2.3</v>
+      </c>
+      <c r="AD165">
+        <v>3.4</v>
+      </c>
+      <c r="AE165">
+        <v>2.55</v>
+      </c>
+      <c r="AF165">
+        <v>1.05</v>
+      </c>
+      <c r="AG165">
+        <v>8</v>
+      </c>
+      <c r="AH165">
+        <v>1.22</v>
+      </c>
+      <c r="AI165">
+        <v>3.65</v>
+      </c>
+      <c r="AJ165">
+        <v>1.85</v>
+      </c>
+      <c r="AK165">
+        <v>1.95</v>
+      </c>
+      <c r="AL165">
+        <v>1.6</v>
+      </c>
+      <c r="AM165">
+        <v>2.27</v>
+      </c>
+      <c r="AN165">
+        <v>1.41</v>
+      </c>
+      <c r="AO165">
+        <v>1.27</v>
+      </c>
+      <c r="AP165">
+        <v>1.5</v>
+      </c>
+      <c r="AQ165">
+        <v>1.1</v>
+      </c>
+      <c r="AR165">
+        <v>0.4</v>
+      </c>
+      <c r="AS165">
+        <v>1.27</v>
+      </c>
+      <c r="AT165">
+        <v>0.36</v>
+      </c>
+      <c r="AU165">
+        <v>1.5</v>
+      </c>
+      <c r="AV165">
+        <v>1.43</v>
+      </c>
+      <c r="AW165">
+        <v>2.93</v>
+      </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>0</v>
+      </c>
+      <c r="AZ165">
+        <v>0</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>7</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
+      <c r="BH165">
         <v>6</v>
-      </c>
-      <c r="T165">
-        <v>3.25</v>
-      </c>
-      <c r="U165">
-        <v>2.1</v>
-      </c>
-      <c r="V165">
-        <v>3</v>
-      </c>
-      <c r="W165">
-        <v>1.37</v>
-      </c>
-      <c r="X165">
-        <v>2.85</v>
-      </c>
-      <c r="Y165">
-        <v>2.65</v>
-      </c>
-      <c r="Z165">
-        <v>1.42</v>
-      </c>
-      <c r="AA165">
-        <v>6.4</v>
-      </c>
-      <c r="AB165">
-        <v>1.08</v>
-      </c>
-      <c r="AC165">
-        <v>2.55</v>
-      </c>
-      <c r="AD165">
-        <v>3.5</v>
-      </c>
-      <c r="AE165">
-        <v>2.25</v>
-      </c>
-      <c r="AF165">
-        <v>1.01</v>
-      </c>
-      <c r="AG165">
-        <v>12</v>
-      </c>
-      <c r="AH165">
-        <v>1.29</v>
-      </c>
-      <c r="AI165">
-        <v>3.3</v>
-      </c>
-      <c r="AJ165">
-        <v>1.95</v>
-      </c>
-      <c r="AK165">
-        <v>1.85</v>
-      </c>
-      <c r="AL165">
-        <v>1.74</v>
-      </c>
-      <c r="AM165">
-        <v>2.04</v>
-      </c>
-      <c r="AN165">
-        <v>1.53</v>
-      </c>
-      <c r="AO165">
-        <v>1.33</v>
-      </c>
-      <c r="AP165">
-        <v>1.4</v>
-      </c>
-      <c r="AQ165">
-        <v>0.4</v>
-      </c>
-      <c r="AR165">
-        <v>0.78</v>
-      </c>
-      <c r="AS165">
-        <v>0.64</v>
-      </c>
-      <c r="AT165">
-        <v>0.7</v>
-      </c>
-      <c r="AU165">
-        <v>1.76</v>
-      </c>
-      <c r="AV165">
-        <v>1.94</v>
-      </c>
-      <c r="AW165">
-        <v>3.7</v>
-      </c>
-      <c r="AX165">
-        <v>0</v>
-      </c>
-      <c r="AY165">
-        <v>0</v>
-      </c>
-      <c r="AZ165">
-        <v>0</v>
-      </c>
-      <c r="BA165">
-        <v>0</v>
-      </c>
-      <c r="BB165">
-        <v>0</v>
-      </c>
-      <c r="BC165">
-        <v>0</v>
-      </c>
-      <c r="BD165">
-        <v>0</v>
-      </c>
-      <c r="BE165">
-        <v>0</v>
-      </c>
-      <c r="BF165">
-        <v>3</v>
-      </c>
-      <c r="BG165">
-        <v>4</v>
-      </c>
-      <c r="BH165">
-        <v>4</v>
       </c>
       <c r="BI165">
         <v>7</v>
       </c>
       <c r="BJ165">
+        <v>13</v>
+      </c>
+      <c r="BK165">
         <v>7</v>
-      </c>
-      <c r="BK165">
-        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:63">
@@ -32750,7 +32750,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2547082</v>
+        <v>2547078</v>
       </c>
       <c r="C166" t="s">
         <v>63</v>
@@ -32765,133 +32765,133 @@
         <v>21</v>
       </c>
       <c r="G166" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H166" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>178</v>
+      </c>
+      <c r="P166" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q166">
         <v>4</v>
       </c>
-      <c r="L166">
-        <v>2</v>
-      </c>
-      <c r="M166">
-        <v>2</v>
-      </c>
-      <c r="N166">
-        <v>4</v>
-      </c>
-      <c r="O166" t="s">
-        <v>188</v>
-      </c>
-      <c r="P166" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q166">
+      <c r="R166">
+        <v>2</v>
+      </c>
+      <c r="S166">
         <v>6</v>
       </c>
-      <c r="R166">
-        <v>3</v>
-      </c>
-      <c r="S166">
-        <v>9</v>
-      </c>
       <c r="T166">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
         <v>2.1</v>
       </c>
       <c r="V166">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W166">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X166">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="Y166">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="Z166">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AA166">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AB166">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC166">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AD166">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE166">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AF166">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AG166">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH166">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AI166">
-        <v>3.08</v>
+        <v>3.3</v>
       </c>
       <c r="AJ166">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK166">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AL166">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AM166">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AN166">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AO166">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ166">
-        <v>1.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR166">
-        <v>1.1</v>
+        <v>0.78</v>
       </c>
       <c r="AS166">
-        <v>1.1</v>
+        <v>0.64</v>
       </c>
       <c r="AT166">
-        <v>1.09</v>
+        <v>0.7</v>
       </c>
       <c r="AU166">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AV166">
-        <v>1.29</v>
+        <v>1.94</v>
       </c>
       <c r="AW166">
-        <v>2.97</v>
+        <v>3.7</v>
       </c>
       <c r="AX166">
         <v>0</v>
@@ -32918,22 +32918,22 @@
         <v>0</v>
       </c>
       <c r="BF166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG166">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI166">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BJ166">
         <v>7</v>
       </c>
       <c r="BK166">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:63">
@@ -32941,7 +32941,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>2547084</v>
+        <v>2547080</v>
       </c>
       <c r="C167" t="s">
         <v>63</v>
@@ -32956,133 +32956,133 @@
         <v>21</v>
       </c>
       <c r="G167" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H167" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167">
         <v>1</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M167">
         <v>2</v>
       </c>
       <c r="N167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O167" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="P167" t="s">
         <v>281</v>
       </c>
       <c r="Q167">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T167">
+        <v>1.91</v>
+      </c>
+      <c r="U167">
+        <v>2.38</v>
+      </c>
+      <c r="V167">
+        <v>6</v>
+      </c>
+      <c r="W167">
+        <v>1.28</v>
+      </c>
+      <c r="X167">
+        <v>3.3</v>
+      </c>
+      <c r="Y167">
         <v>2.3</v>
       </c>
-      <c r="U167">
-        <v>2.1</v>
-      </c>
-      <c r="V167">
-        <v>5</v>
-      </c>
-      <c r="W167">
-        <v>1.33</v>
-      </c>
-      <c r="X167">
-        <v>3</v>
-      </c>
-      <c r="Y167">
-        <v>2.5</v>
-      </c>
       <c r="Z167">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AA167">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="AB167">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AC167">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD167">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AE167">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF167">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG167">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AH167">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AI167">
-        <v>2.93</v>
+        <v>3.84</v>
       </c>
       <c r="AJ167">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="AK167">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="AL167">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="AM167">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="AN167">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="AO167">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="AQ167">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="AR167">
         <v>1.1</v>
       </c>
       <c r="AS167">
-        <v>0.91</v>
+        <v>1.82</v>
       </c>
       <c r="AT167">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="AU167">
-        <v>1.52</v>
+        <v>1.84</v>
       </c>
       <c r="AV167">
-        <v>1.14</v>
+        <v>1.48</v>
       </c>
       <c r="AW167">
-        <v>2.66</v>
+        <v>3.32</v>
       </c>
       <c r="AX167">
         <v>0</v>
@@ -33109,22 +33109,22 @@
         <v>0</v>
       </c>
       <c r="BF167">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG167">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH167">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BI167">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BJ167">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BK167">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:63">
@@ -33132,7 +33132,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>2547080</v>
+        <v>2547084</v>
       </c>
       <c r="C168" t="s">
         <v>63</v>
@@ -33147,133 +33147,133 @@
         <v>21</v>
       </c>
       <c r="G168" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H168" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
         <v>1</v>
       </c>
       <c r="K168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M168">
         <v>2</v>
       </c>
       <c r="N168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O168" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="P168" t="s">
         <v>282</v>
       </c>
       <c r="Q168">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S168">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T168">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="U168">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V168">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W168">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="X168">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Y168">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z168">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AA168">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="AB168">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AC168">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD168">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AE168">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF168">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AG168">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AH168">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AI168">
-        <v>3.84</v>
+        <v>2.93</v>
       </c>
       <c r="AJ168">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="AK168">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="AL168">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="AM168">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="AN168">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AO168">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AP168">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ168">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="AR168">
         <v>1.1</v>
       </c>
       <c r="AS168">
-        <v>1.82</v>
+        <v>0.91</v>
       </c>
       <c r="AT168">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AU168">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="AV168">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="AW168">
-        <v>3.32</v>
+        <v>2.66</v>
       </c>
       <c r="AX168">
         <v>0</v>
@@ -33300,22 +33300,22 @@
         <v>0</v>
       </c>
       <c r="BF168">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH168">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BI168">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BJ168">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BK168">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,18 @@
     <t>['8', '76']</t>
   </si>
   <si>
+    <t>['25', '40', '50', '71']</t>
+  </si>
+  <si>
+    <t>['35', '77']</t>
+  </si>
+  <si>
+    <t>['17', '19', '37', '41']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -724,9 +736,6 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['6', '20']</t>
   </si>
   <si>
@@ -863,6 +872,15 @@
   </si>
   <si>
     <t>['2', '79']</t>
+  </si>
+  <si>
+    <t>['18', '30']</t>
+  </si>
+  <si>
+    <t>['22', '49', '76', '77']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT2">
         <v>0.7</v>
@@ -1659,7 +1677,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1749,7 +1767,7 @@
         <v>2.09</v>
       </c>
       <c r="AT3">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2041,7 +2059,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2128,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT5">
         <v>1.3</v>
@@ -2232,7 +2250,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2322,7 +2340,7 @@
         <v>1.1</v>
       </c>
       <c r="AT6">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2423,7 +2441,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -3083,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT10">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3187,7 +3205,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3274,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT11">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3468,7 +3486,7 @@
         <v>1.73</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3569,7 +3587,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3656,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT13">
         <v>2.6</v>
@@ -3760,7 +3778,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3850,7 +3868,7 @@
         <v>1.4</v>
       </c>
       <c r="AT14">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3951,7 +3969,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4038,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT15">
         <v>0.36</v>
@@ -4232,7 +4250,7 @@
         <v>0.64</v>
       </c>
       <c r="AT16">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4420,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT17">
         <v>1.09</v>
@@ -4524,7 +4542,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4805,7 +4823,7 @@
         <v>1.82</v>
       </c>
       <c r="AT19">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4906,7 +4924,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4993,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT20">
         <v>1.36</v>
@@ -5097,7 +5115,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5288,7 +5306,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>15</v>
@@ -5479,7 +5497,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5951,7 +5969,7 @@
         <v>1.8</v>
       </c>
       <c r="AT25">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU25">
         <v>0.65</v>
@@ -6139,10 +6157,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT26">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU26">
         <v>2.45</v>
@@ -6243,7 +6261,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6330,10 +6348,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT27">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU27">
         <v>1.59</v>
@@ -6434,7 +6452,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6524,7 +6542,7 @@
         <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU28">
         <v>2.34</v>
@@ -6712,10 +6730,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT29">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU29">
         <v>2.31</v>
@@ -6816,7 +6834,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>-1</v>
@@ -6903,10 +6921,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT30">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU30">
         <v>1.35</v>
@@ -7007,7 +7025,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7198,7 +7216,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7476,10 +7494,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT33">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU33">
         <v>1.42</v>
@@ -7580,7 +7598,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7861,7 +7879,7 @@
         <v>1.73</v>
       </c>
       <c r="AT35">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU35">
         <v>2.4</v>
@@ -8153,7 +8171,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8344,7 +8362,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8535,7 +8553,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8622,7 +8640,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT39">
         <v>0.7</v>
@@ -9198,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="AT42">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU42">
         <v>1.26</v>
@@ -9386,10 +9404,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT43">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU43">
         <v>1.93</v>
@@ -9490,7 +9508,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9577,10 +9595,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT44">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU44">
         <v>1.35</v>
@@ -9768,10 +9786,10 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT45">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU45">
         <v>1.48</v>
@@ -9872,7 +9890,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9959,10 +9977,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT46">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU46">
         <v>2.12</v>
@@ -10150,10 +10168,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT47">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU47">
         <v>1.92</v>
@@ -10254,7 +10272,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10341,7 +10359,7 @@
         <v>1.67</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT48">
         <v>2.6</v>
@@ -10445,7 +10463,7 @@
         <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10535,7 +10553,7 @@
         <v>1.4</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU49">
         <v>1.73</v>
@@ -10636,7 +10654,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10827,7 +10845,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11018,7 +11036,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11400,7 +11418,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11591,7 +11609,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11973,7 +11991,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12164,7 +12182,7 @@
         <v>83</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12251,10 +12269,10 @@
         <v>0.25</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT58">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU58">
         <v>1.27</v>
@@ -12355,7 +12373,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12442,10 +12460,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT59">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU59">
         <v>1.37</v>
@@ -12636,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="AT60">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU60">
         <v>1.3</v>
@@ -12827,7 +12845,7 @@
         <v>1.27</v>
       </c>
       <c r="AT61">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU61">
         <v>1.45</v>
@@ -13015,7 +13033,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT62">
         <v>2.6</v>
@@ -13119,7 +13137,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>10</v>
@@ -13206,7 +13224,7 @@
         <v>2.5</v>
       </c>
       <c r="AS63">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT63">
         <v>1.55</v>
@@ -13501,7 +13519,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>12</v>
@@ -13591,7 +13609,7 @@
         <v>2.09</v>
       </c>
       <c r="AT65">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU65">
         <v>1.27</v>
@@ -13779,7 +13797,7 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT66">
         <v>1.27</v>
@@ -13883,7 +13901,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14265,7 +14283,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>10</v>
@@ -14456,7 +14474,7 @@
         <v>129</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14647,7 +14665,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14737,7 +14755,7 @@
         <v>1.4</v>
       </c>
       <c r="AT71">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU71">
         <v>1.6</v>
@@ -14838,7 +14856,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15029,7 +15047,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15116,10 +15134,10 @@
         <v>1.25</v>
       </c>
       <c r="AS73">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT73">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU73">
         <v>1.84</v>
@@ -15220,7 +15238,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -15310,7 +15328,7 @@
         <v>1.27</v>
       </c>
       <c r="AT74">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU74">
         <v>1.54</v>
@@ -15411,7 +15429,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>18</v>
@@ -15501,7 +15519,7 @@
         <v>0.91</v>
       </c>
       <c r="AT75">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU75">
         <v>1.45</v>
@@ -15602,7 +15620,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15689,10 +15707,10 @@
         <v>3</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT76">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU76">
         <v>1.25</v>
@@ -15793,7 +15811,7 @@
         <v>83</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15880,7 +15898,7 @@
         <v>0.6</v>
       </c>
       <c r="AS77">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT77">
         <v>1.27</v>
@@ -15984,7 +16002,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16071,10 +16089,10 @@
         <v>0.8</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT78">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU78">
         <v>1.58</v>
@@ -16175,7 +16193,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16366,7 +16384,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16453,10 +16471,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT80">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU80">
         <v>1.8</v>
@@ -16557,7 +16575,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16748,7 +16766,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16835,7 +16853,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT82">
         <v>1.3</v>
@@ -16939,7 +16957,7 @@
         <v>83</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -17026,7 +17044,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT83">
         <v>1.09</v>
@@ -17130,7 +17148,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17220,7 +17238,7 @@
         <v>1.8</v>
       </c>
       <c r="AT84">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU84">
         <v>1.58</v>
@@ -17512,7 +17530,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17703,7 +17721,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17793,7 +17811,7 @@
         <v>1.1</v>
       </c>
       <c r="AT87">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU87">
         <v>1.6</v>
@@ -17894,7 +17912,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18085,7 +18103,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18172,10 +18190,10 @@
         <v>2.67</v>
       </c>
       <c r="AS89">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT89">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU89">
         <v>1.74</v>
@@ -18276,7 +18294,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18363,7 +18381,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT90">
         <v>1.27</v>
@@ -18467,7 +18485,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -18557,7 +18575,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU91">
         <v>1.35</v>
@@ -18658,7 +18676,7 @@
         <v>83</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18748,7 +18766,7 @@
         <v>0.91</v>
       </c>
       <c r="AT92">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU92">
         <v>1.52</v>
@@ -18939,7 +18957,7 @@
         <v>2.09</v>
       </c>
       <c r="AT93">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -19040,7 +19058,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19127,7 +19145,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT94">
         <v>1.3</v>
@@ -19231,7 +19249,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19318,7 +19336,7 @@
         <v>2.17</v>
       </c>
       <c r="AS95">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT95">
         <v>1.55</v>
@@ -19422,7 +19440,7 @@
         <v>149</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19703,7 +19721,7 @@
         <v>1.73</v>
       </c>
       <c r="AT97">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU97">
         <v>1.99</v>
@@ -20085,7 +20103,7 @@
         <v>1.82</v>
       </c>
       <c r="AT99">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU99">
         <v>2.01</v>
@@ -20273,10 +20291,10 @@
         <v>0.83</v>
       </c>
       <c r="AS100">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT100">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU100">
         <v>1.68</v>
@@ -20464,7 +20482,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT101">
         <v>1.09</v>
@@ -20568,7 +20586,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20655,7 +20673,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT102">
         <v>1.36</v>
@@ -21040,7 +21058,7 @@
         <v>1.8</v>
       </c>
       <c r="AT104">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU104">
         <v>1.61</v>
@@ -21141,7 +21159,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21332,7 +21350,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21610,7 +21628,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT107">
         <v>1.09</v>
@@ -21714,7 +21732,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -21801,7 +21819,7 @@
         <v>0.86</v>
       </c>
       <c r="AS108">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT108">
         <v>1.3</v>
@@ -22186,7 +22204,7 @@
         <v>1.27</v>
       </c>
       <c r="AT110">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU110">
         <v>1.53</v>
@@ -22287,7 +22305,7 @@
         <v>158</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22374,7 +22392,7 @@
         <v>1.86</v>
       </c>
       <c r="AS111">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT111">
         <v>1.55</v>
@@ -22478,7 +22496,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22568,7 +22586,7 @@
         <v>0.91</v>
       </c>
       <c r="AT112">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU112">
         <v>1.43</v>
@@ -22669,7 +22687,7 @@
         <v>83</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22759,7 +22777,7 @@
         <v>1.1</v>
       </c>
       <c r="AT113">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU113">
         <v>1.63</v>
@@ -22950,7 +22968,7 @@
         <v>1.73</v>
       </c>
       <c r="AT114">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU114">
         <v>2.07</v>
@@ -23051,7 +23069,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23138,7 +23156,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT115">
         <v>0.36</v>
@@ -23242,7 +23260,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23329,10 +23347,10 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT116">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU116">
         <v>1.99</v>
@@ -23433,7 +23451,7 @@
         <v>83</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23624,7 +23642,7 @@
         <v>109</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23711,7 +23729,7 @@
         <v>1.17</v>
       </c>
       <c r="AS118">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT118">
         <v>1.36</v>
@@ -23905,7 +23923,7 @@
         <v>1.82</v>
       </c>
       <c r="AT119">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -24006,7 +24024,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -24096,7 +24114,7 @@
         <v>0.64</v>
       </c>
       <c r="AT120">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU120">
         <v>1.83</v>
@@ -24475,7 +24493,7 @@
         <v>1.14</v>
       </c>
       <c r="AS122">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT122">
         <v>1.09</v>
@@ -24579,7 +24597,7 @@
         <v>164</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24770,7 +24788,7 @@
         <v>158</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24860,7 +24878,7 @@
         <v>0.64</v>
       </c>
       <c r="AT124">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU124">
         <v>1.82</v>
@@ -25051,7 +25069,7 @@
         <v>1.82</v>
       </c>
       <c r="AT125">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU125">
         <v>2.05</v>
@@ -25152,7 +25170,7 @@
         <v>166</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25239,7 +25257,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT126">
         <v>1.36</v>
@@ -25430,10 +25448,10 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT127">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU127">
         <v>1.45</v>
@@ -25534,7 +25552,7 @@
         <v>167</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25621,10 +25639,10 @@
         <v>1.86</v>
       </c>
       <c r="AS128">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT128">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU128">
         <v>1.86</v>
@@ -25815,7 +25833,7 @@
         <v>1.73</v>
       </c>
       <c r="AT129">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU129">
         <v>2.04</v>
@@ -25916,7 +25934,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26003,7 +26021,7 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT130">
         <v>1.09</v>
@@ -26107,7 +26125,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26298,7 +26316,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26388,7 +26406,7 @@
         <v>1.8</v>
       </c>
       <c r="AT132">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU132">
         <v>1.64</v>
@@ -26489,7 +26507,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26680,7 +26698,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>9</v>
@@ -26871,7 +26889,7 @@
         <v>174</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27253,7 +27271,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27444,7 +27462,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>9</v>
@@ -27531,10 +27549,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS138">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT138">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU138">
         <v>1.77</v>
@@ -27722,7 +27740,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT139">
         <v>1.09</v>
@@ -27913,7 +27931,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT140">
         <v>0.36</v>
@@ -28107,7 +28125,7 @@
         <v>1.4</v>
       </c>
       <c r="AT141">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU141">
         <v>1.89</v>
@@ -28208,7 +28226,7 @@
         <v>83</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>9</v>
@@ -28295,10 +28313,10 @@
         <v>1.5</v>
       </c>
       <c r="AS142">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT142">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU142">
         <v>1.58</v>
@@ -28399,7 +28417,7 @@
         <v>131</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28486,10 +28504,10 @@
         <v>1.25</v>
       </c>
       <c r="AS143">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT143">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU143">
         <v>1.64</v>
@@ -28590,7 +28608,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>-1</v>
@@ -28680,7 +28698,7 @@
         <v>0.64</v>
       </c>
       <c r="AT144">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU144">
         <v>1.82</v>
@@ -28781,7 +28799,7 @@
         <v>83</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28871,7 +28889,7 @@
         <v>1.1</v>
       </c>
       <c r="AT145">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU145">
         <v>1.68</v>
@@ -29163,7 +29181,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29354,7 +29372,7 @@
         <v>181</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29632,7 +29650,7 @@
         <v>1.11</v>
       </c>
       <c r="AS149">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT149">
         <v>1.09</v>
@@ -29927,7 +29945,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30017,7 +30035,7 @@
         <v>1.82</v>
       </c>
       <c r="AT151">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU151">
         <v>1.93</v>
@@ -30118,7 +30136,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30309,7 +30327,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30500,7 +30518,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30587,10 +30605,10 @@
         <v>1.89</v>
       </c>
       <c r="AS154">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT154">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU154">
         <v>1.58</v>
@@ -30691,7 +30709,7 @@
         <v>185</v>
       </c>
       <c r="P155" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30778,7 +30796,7 @@
         <v>0.44</v>
       </c>
       <c r="AS155">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT155">
         <v>0.36</v>
@@ -30882,7 +30900,7 @@
         <v>83</v>
       </c>
       <c r="P156" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -30972,7 +30990,7 @@
         <v>1</v>
       </c>
       <c r="AT156">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU156">
         <v>1.31</v>
@@ -31073,7 +31091,7 @@
         <v>83</v>
       </c>
       <c r="P157" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31163,7 +31181,7 @@
         <v>0.64</v>
       </c>
       <c r="AT157">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU157">
         <v>1.82</v>
@@ -31351,7 +31369,7 @@
         <v>2.56</v>
       </c>
       <c r="AS158">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT158">
         <v>2.6</v>
@@ -31545,7 +31563,7 @@
         <v>1.4</v>
       </c>
       <c r="AT159">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU159">
         <v>1.87</v>
@@ -31733,10 +31751,10 @@
         <v>1.78</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT160">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU160">
         <v>1.34</v>
@@ -31924,10 +31942,10 @@
         <v>1.67</v>
       </c>
       <c r="AS161">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT161">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU161">
         <v>1.66</v>
@@ -32219,7 +32237,7 @@
         <v>122</v>
       </c>
       <c r="P163" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -32983,7 +33001,7 @@
         <v>83</v>
       </c>
       <c r="P167" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33174,7 +33192,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q168">
         <v>5</v>
@@ -33316,6 +33334,1343 @@
       </c>
       <c r="BK168">
         <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2547093</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45009.58333333334</v>
+      </c>
+      <c r="F169">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>73</v>
+      </c>
+      <c r="H169" t="s">
+        <v>79</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>83</v>
+      </c>
+      <c r="P169" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>3</v>
+      </c>
+      <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>2.3</v>
+      </c>
+      <c r="U169">
+        <v>2.3</v>
+      </c>
+      <c r="V169">
+        <v>4.33</v>
+      </c>
+      <c r="W169">
+        <v>1.3</v>
+      </c>
+      <c r="X169">
+        <v>3.2</v>
+      </c>
+      <c r="Y169">
+        <v>2.62</v>
+      </c>
+      <c r="Z169">
+        <v>1.44</v>
+      </c>
+      <c r="AA169">
+        <v>6</v>
+      </c>
+      <c r="AB169">
+        <v>1.11</v>
+      </c>
+      <c r="AC169">
+        <v>1.7</v>
+      </c>
+      <c r="AD169">
+        <v>3.8</v>
+      </c>
+      <c r="AE169">
+        <v>3.8</v>
+      </c>
+      <c r="AF169">
+        <v>1.01</v>
+      </c>
+      <c r="AG169">
+        <v>11</v>
+      </c>
+      <c r="AH169">
+        <v>1.21</v>
+      </c>
+      <c r="AI169">
+        <v>3.74</v>
+      </c>
+      <c r="AJ169">
+        <v>1.75</v>
+      </c>
+      <c r="AK169">
+        <v>2.05</v>
+      </c>
+      <c r="AL169">
+        <v>1.67</v>
+      </c>
+      <c r="AM169">
+        <v>2.15</v>
+      </c>
+      <c r="AN169">
+        <v>1.25</v>
+      </c>
+      <c r="AO169">
+        <v>1.22</v>
+      </c>
+      <c r="AP169">
+        <v>1.8</v>
+      </c>
+      <c r="AQ169">
+        <v>1.2</v>
+      </c>
+      <c r="AR169">
+        <v>1.4</v>
+      </c>
+      <c r="AS169">
+        <v>1.09</v>
+      </c>
+      <c r="AT169">
+        <v>1.55</v>
+      </c>
+      <c r="AU169">
+        <v>1.77</v>
+      </c>
+      <c r="AV169">
+        <v>1.3</v>
+      </c>
+      <c r="AW169">
+        <v>3.07</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>4</v>
+      </c>
+      <c r="BG169">
+        <v>4</v>
+      </c>
+      <c r="BH169">
+        <v>1</v>
+      </c>
+      <c r="BI169">
+        <v>9</v>
+      </c>
+      <c r="BJ169">
+        <v>5</v>
+      </c>
+      <c r="BK169">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>2547092</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45009.58333333334</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>74</v>
+      </c>
+      <c r="H170" t="s">
+        <v>75</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>4</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170" t="s">
+        <v>83</v>
+      </c>
+      <c r="P170" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q170">
+        <v>5</v>
+      </c>
+      <c r="R170">
+        <v>6</v>
+      </c>
+      <c r="S170">
+        <v>11</v>
+      </c>
+      <c r="T170">
+        <v>3.75</v>
+      </c>
+      <c r="U170">
+        <v>2.25</v>
+      </c>
+      <c r="V170">
+        <v>2.5</v>
+      </c>
+      <c r="W170">
+        <v>1.29</v>
+      </c>
+      <c r="X170">
+        <v>3.24</v>
+      </c>
+      <c r="Y170">
+        <v>2.5</v>
+      </c>
+      <c r="Z170">
+        <v>1.5</v>
+      </c>
+      <c r="AA170">
+        <v>6</v>
+      </c>
+      <c r="AB170">
+        <v>1.11</v>
+      </c>
+      <c r="AC170">
+        <v>3.4</v>
+      </c>
+      <c r="AD170">
+        <v>3.6</v>
+      </c>
+      <c r="AE170">
+        <v>1.91</v>
+      </c>
+      <c r="AF170">
+        <v>1.01</v>
+      </c>
+      <c r="AG170">
+        <v>14</v>
+      </c>
+      <c r="AH170">
+        <v>1.17</v>
+      </c>
+      <c r="AI170">
+        <v>4.2</v>
+      </c>
+      <c r="AJ170">
+        <v>1.73</v>
+      </c>
+      <c r="AK170">
+        <v>2.08</v>
+      </c>
+      <c r="AL170">
+        <v>1.63</v>
+      </c>
+      <c r="AM170">
+        <v>2.22</v>
+      </c>
+      <c r="AN170">
+        <v>2.11</v>
+      </c>
+      <c r="AO170">
+        <v>1.21</v>
+      </c>
+      <c r="AP170">
+        <v>1.16</v>
+      </c>
+      <c r="AQ170">
+        <v>1</v>
+      </c>
+      <c r="AR170">
+        <v>2.5</v>
+      </c>
+      <c r="AS170">
+        <v>0.91</v>
+      </c>
+      <c r="AT170">
+        <v>2.55</v>
+      </c>
+      <c r="AU170">
+        <v>1.58</v>
+      </c>
+      <c r="AV170">
+        <v>1.51</v>
+      </c>
+      <c r="AW170">
+        <v>3.09</v>
+      </c>
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>0</v>
+      </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>0</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>3</v>
+      </c>
+      <c r="BG170">
+        <v>8</v>
+      </c>
+      <c r="BH170">
+        <v>3</v>
+      </c>
+      <c r="BI170">
+        <v>1</v>
+      </c>
+      <c r="BJ170">
+        <v>6</v>
+      </c>
+      <c r="BK170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2547086</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45010.45833333334</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s">
+        <v>71</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>83</v>
+      </c>
+      <c r="P171" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q171">
+        <v>10</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>12</v>
+      </c>
+      <c r="T171">
+        <v>2.38</v>
+      </c>
+      <c r="U171">
+        <v>2.2</v>
+      </c>
+      <c r="V171">
+        <v>4.33</v>
+      </c>
+      <c r="W171">
+        <v>1.38</v>
+      </c>
+      <c r="X171">
+        <v>2.57</v>
+      </c>
+      <c r="Y171">
+        <v>2.68</v>
+      </c>
+      <c r="Z171">
+        <v>1.33</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+      <c r="AC171">
+        <v>2.4</v>
+      </c>
+      <c r="AD171">
+        <v>3.14</v>
+      </c>
+      <c r="AE171">
+        <v>2.4</v>
+      </c>
+      <c r="AF171">
+        <v>0</v>
+      </c>
+      <c r="AG171">
+        <v>10.5</v>
+      </c>
+      <c r="AH171">
+        <v>1.22</v>
+      </c>
+      <c r="AI171">
+        <v>3.7</v>
+      </c>
+      <c r="AJ171">
+        <v>1.83</v>
+      </c>
+      <c r="AK171">
+        <v>1.98</v>
+      </c>
+      <c r="AL171">
+        <v>1.65</v>
+      </c>
+      <c r="AM171">
+        <v>2.1</v>
+      </c>
+      <c r="AN171">
+        <v>1.2</v>
+      </c>
+      <c r="AO171">
+        <v>1.17</v>
+      </c>
+      <c r="AP171">
+        <v>1.85</v>
+      </c>
+      <c r="AQ171">
+        <v>1.64</v>
+      </c>
+      <c r="AR171">
+        <v>1.6</v>
+      </c>
+      <c r="AS171">
+        <v>1.58</v>
+      </c>
+      <c r="AT171">
+        <v>1.55</v>
+      </c>
+      <c r="AU171">
+        <v>1.81</v>
+      </c>
+      <c r="AV171">
+        <v>1.37</v>
+      </c>
+      <c r="AW171">
+        <v>3.18</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="AZ171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>7</v>
+      </c>
+      <c r="BG171">
+        <v>4</v>
+      </c>
+      <c r="BH171">
+        <v>7</v>
+      </c>
+      <c r="BI171">
+        <v>4</v>
+      </c>
+      <c r="BJ171">
+        <v>14</v>
+      </c>
+      <c r="BK171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>2547090</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45010.45833333334</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>78</v>
+      </c>
+      <c r="H172" t="s">
+        <v>72</v>
+      </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>4</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172" t="s">
+        <v>190</v>
+      </c>
+      <c r="P172" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q172">
+        <v>5</v>
+      </c>
+      <c r="R172">
+        <v>3</v>
+      </c>
+      <c r="S172">
+        <v>8</v>
+      </c>
+      <c r="T172">
+        <v>3.4</v>
+      </c>
+      <c r="U172">
+        <v>2.1</v>
+      </c>
+      <c r="V172">
+        <v>2.88</v>
+      </c>
+      <c r="W172">
+        <v>1.4</v>
+      </c>
+      <c r="X172">
+        <v>2.52</v>
+      </c>
+      <c r="Y172">
+        <v>2.82</v>
+      </c>
+      <c r="Z172">
+        <v>1.29</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+      <c r="AB172">
+        <v>0</v>
+      </c>
+      <c r="AC172">
+        <v>4.1</v>
+      </c>
+      <c r="AD172">
+        <v>3.3</v>
+      </c>
+      <c r="AE172">
+        <v>1.8</v>
+      </c>
+      <c r="AF172">
+        <v>1.03</v>
+      </c>
+      <c r="AG172">
+        <v>9.25</v>
+      </c>
+      <c r="AH172">
+        <v>1.32</v>
+      </c>
+      <c r="AI172">
+        <v>3.1</v>
+      </c>
+      <c r="AJ172">
+        <v>2</v>
+      </c>
+      <c r="AK172">
+        <v>1.8</v>
+      </c>
+      <c r="AL172">
+        <v>1.8</v>
+      </c>
+      <c r="AM172">
+        <v>1.9</v>
+      </c>
+      <c r="AN172">
+        <v>1.35</v>
+      </c>
+      <c r="AO172">
+        <v>1.37</v>
+      </c>
+      <c r="AP172">
+        <v>1.32</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>2</v>
+      </c>
+      <c r="AS172">
+        <v>1.18</v>
+      </c>
+      <c r="AT172">
+        <v>1.82</v>
+      </c>
+      <c r="AU172">
+        <v>1.63</v>
+      </c>
+      <c r="AV172">
+        <v>1.66</v>
+      </c>
+      <c r="AW172">
+        <v>3.29</v>
+      </c>
+      <c r="AX172">
+        <v>0</v>
+      </c>
+      <c r="AY172">
+        <v>0</v>
+      </c>
+      <c r="AZ172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>0</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>-1</v>
+      </c>
+      <c r="BG172">
+        <v>-1</v>
+      </c>
+      <c r="BH172">
+        <v>-1</v>
+      </c>
+      <c r="BI172">
+        <v>-1</v>
+      </c>
+      <c r="BJ172">
+        <v>-1</v>
+      </c>
+      <c r="BK172">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2547089</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45010.45833333334</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>65</v>
+      </c>
+      <c r="H173" t="s">
+        <v>69</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>191</v>
+      </c>
+      <c r="P173" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q173">
+        <v>4</v>
+      </c>
+      <c r="R173">
+        <v>2</v>
+      </c>
+      <c r="S173">
+        <v>6</v>
+      </c>
+      <c r="T173">
+        <v>1.83</v>
+      </c>
+      <c r="U173">
+        <v>2.38</v>
+      </c>
+      <c r="V173">
+        <v>6.5</v>
+      </c>
+      <c r="W173">
+        <v>1.33</v>
+      </c>
+      <c r="X173">
+        <v>3.04</v>
+      </c>
+      <c r="Y173">
+        <v>2.58</v>
+      </c>
+      <c r="Z173">
+        <v>1.45</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+      <c r="AC173">
+        <v>1.37</v>
+      </c>
+      <c r="AD173">
+        <v>4.5</v>
+      </c>
+      <c r="AE173">
+        <v>6.75</v>
+      </c>
+      <c r="AF173">
+        <v>1.03</v>
+      </c>
+      <c r="AG173">
+        <v>14</v>
+      </c>
+      <c r="AH173">
+        <v>1.2</v>
+      </c>
+      <c r="AI173">
+        <v>3.88</v>
+      </c>
+      <c r="AJ173">
+        <v>1.67</v>
+      </c>
+      <c r="AK173">
+        <v>2.05</v>
+      </c>
+      <c r="AL173">
+        <v>1.78</v>
+      </c>
+      <c r="AM173">
+        <v>1.88</v>
+      </c>
+      <c r="AN173">
+        <v>1.1</v>
+      </c>
+      <c r="AO173">
+        <v>1.18</v>
+      </c>
+      <c r="AP173">
+        <v>2.39</v>
+      </c>
+      <c r="AQ173">
+        <v>1.5</v>
+      </c>
+      <c r="AR173">
+        <v>0.45</v>
+      </c>
+      <c r="AS173">
+        <v>1.64</v>
+      </c>
+      <c r="AT173">
+        <v>0.42</v>
+      </c>
+      <c r="AU173">
+        <v>1.37</v>
+      </c>
+      <c r="AV173">
+        <v>1.47</v>
+      </c>
+      <c r="AW173">
+        <v>2.84</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>0</v>
+      </c>
+      <c r="AZ173">
+        <v>0</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>0</v>
+      </c>
+      <c r="BC173">
+        <v>0</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>6</v>
+      </c>
+      <c r="BG173">
+        <v>5</v>
+      </c>
+      <c r="BH173">
+        <v>8</v>
+      </c>
+      <c r="BI173">
+        <v>4</v>
+      </c>
+      <c r="BJ173">
+        <v>14</v>
+      </c>
+      <c r="BK173">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2547087</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45011.41666666666</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>68</v>
+      </c>
+      <c r="H174" t="s">
+        <v>70</v>
+      </c>
+      <c r="I174">
+        <v>4</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>5</v>
+      </c>
+      <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174" t="s">
+        <v>192</v>
+      </c>
+      <c r="P174" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q174">
+        <v>2</v>
+      </c>
+      <c r="R174">
+        <v>7</v>
+      </c>
+      <c r="S174">
+        <v>9</v>
+      </c>
+      <c r="T174">
+        <v>3.25</v>
+      </c>
+      <c r="U174">
+        <v>2.1</v>
+      </c>
+      <c r="V174">
+        <v>3</v>
+      </c>
+      <c r="W174">
+        <v>1.36</v>
+      </c>
+      <c r="X174">
+        <v>2.9</v>
+      </c>
+      <c r="Y174">
+        <v>2.62</v>
+      </c>
+      <c r="Z174">
+        <v>1.42</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <v>0</v>
+      </c>
+      <c r="AC174">
+        <v>2.65</v>
+      </c>
+      <c r="AD174">
+        <v>3.25</v>
+      </c>
+      <c r="AE174">
+        <v>2.4</v>
+      </c>
+      <c r="AF174">
+        <v>0</v>
+      </c>
+      <c r="AG174">
+        <v>0</v>
+      </c>
+      <c r="AH174">
+        <v>1.25</v>
+      </c>
+      <c r="AI174">
+        <v>3.6</v>
+      </c>
+      <c r="AJ174">
+        <v>1.8</v>
+      </c>
+      <c r="AK174">
+        <v>2</v>
+      </c>
+      <c r="AL174">
+        <v>1.65</v>
+      </c>
+      <c r="AM174">
+        <v>2.1</v>
+      </c>
+      <c r="AN174">
+        <v>1.53</v>
+      </c>
+      <c r="AO174">
+        <v>1.3</v>
+      </c>
+      <c r="AP174">
+        <v>1.48</v>
+      </c>
+      <c r="AQ174">
+        <v>1.2</v>
+      </c>
+      <c r="AR174">
+        <v>1.7</v>
+      </c>
+      <c r="AS174">
+        <v>1.36</v>
+      </c>
+      <c r="AT174">
+        <v>1.55</v>
+      </c>
+      <c r="AU174">
+        <v>1.77</v>
+      </c>
+      <c r="AV174">
+        <v>1.44</v>
+      </c>
+      <c r="AW174">
+        <v>3.21</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>0</v>
+      </c>
+      <c r="AZ174">
+        <v>0</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
+      <c r="BC174">
+        <v>0</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>9</v>
+      </c>
+      <c r="BG174">
+        <v>9</v>
+      </c>
+      <c r="BH174">
+        <v>4</v>
+      </c>
+      <c r="BI174">
+        <v>10</v>
+      </c>
+      <c r="BJ174">
+        <v>13</v>
+      </c>
+      <c r="BK174">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2547088</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45011.41666666666</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>67</v>
+      </c>
+      <c r="H175" t="s">
+        <v>66</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>193</v>
+      </c>
+      <c r="P175" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q175">
+        <v>6</v>
+      </c>
+      <c r="R175">
+        <v>7</v>
+      </c>
+      <c r="S175">
+        <v>13</v>
+      </c>
+      <c r="T175">
+        <v>4.75</v>
+      </c>
+      <c r="U175">
+        <v>2.1</v>
+      </c>
+      <c r="V175">
+        <v>2.38</v>
+      </c>
+      <c r="W175">
+        <v>1.44</v>
+      </c>
+      <c r="X175">
+        <v>2.59</v>
+      </c>
+      <c r="Y175">
+        <v>3.04</v>
+      </c>
+      <c r="Z175">
+        <v>1.33</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <v>0</v>
+      </c>
+      <c r="AC175">
+        <v>4</v>
+      </c>
+      <c r="AD175">
+        <v>3.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.73</v>
+      </c>
+      <c r="AF175">
+        <v>1.03</v>
+      </c>
+      <c r="AG175">
+        <v>9.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.34</v>
+      </c>
+      <c r="AI175">
+        <v>2.88</v>
+      </c>
+      <c r="AJ175">
+        <v>2.1</v>
+      </c>
+      <c r="AK175">
+        <v>1.7</v>
+      </c>
+      <c r="AL175">
+        <v>1.93</v>
+      </c>
+      <c r="AM175">
+        <v>1.74</v>
+      </c>
+      <c r="AN175">
+        <v>1.65</v>
+      </c>
+      <c r="AO175">
+        <v>1.26</v>
+      </c>
+      <c r="AP175">
+        <v>1.18</v>
+      </c>
+      <c r="AQ175">
+        <v>1</v>
+      </c>
+      <c r="AR175">
+        <v>1.8</v>
+      </c>
+      <c r="AS175">
+        <v>1</v>
+      </c>
+      <c r="AT175">
+        <v>1.73</v>
+      </c>
+      <c r="AU175">
+        <v>1.25</v>
+      </c>
+      <c r="AV175">
+        <v>1.6</v>
+      </c>
+      <c r="AW175">
+        <v>2.85</v>
+      </c>
+      <c r="AX175">
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <v>0</v>
+      </c>
+      <c r="AZ175">
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>0</v>
+      </c>
+      <c r="BC175">
+        <v>0</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>6</v>
+      </c>
+      <c r="BG175">
+        <v>2</v>
+      </c>
+      <c r="BH175">
+        <v>11</v>
+      </c>
+      <c r="BI175">
+        <v>3</v>
+      </c>
+      <c r="BJ175">
+        <v>17</v>
+      </c>
+      <c r="BK175">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>1.55</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.36</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>2.55</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT7" t="n">
         <v>1.55</v>
@@ -2121,7 +2121,7 @@
         <v>1.27</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT9" t="n">
         <v>2.64</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT10" t="n">
         <v>1.73</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT12" t="n">
         <v>1.82</v>
@@ -3339,7 +3339,7 @@
         <v>1.27</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.18</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT16" t="n">
         <v>0.42</v>
@@ -3948,7 +3948,7 @@
         <v>1.64</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU17" t="n">
         <v>1.54</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
         <v>1.55</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT19" t="n">
         <v>2.55</v>
@@ -4557,7 +4557,7 @@
         <v>1.36</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>2.04</v>
@@ -4760,7 +4760,7 @@
         <v>1.27</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.59</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU22" t="n">
         <v>1.3</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU23" t="n">
         <v>0.77</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU24" t="n">
         <v>1.27</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT25" t="n">
         <v>1.55</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT26" t="n">
         <v>1.82</v>
@@ -6587,7 +6587,7 @@
         <v>1.64</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.35</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT31" t="n">
         <v>2.64</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU32" t="n">
         <v>1.32</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT34" t="n">
         <v>1.55</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT35" t="n">
         <v>1.55</v>
@@ -7802,10 +7802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.15</v>
@@ -8008,7 +8008,7 @@
         <v>1.27</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU37" t="n">
         <v>1.61</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -8414,7 +8414,7 @@
         <v>1.36</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU39" t="n">
         <v>2.07</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU40" t="n">
         <v>1.38</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU41" t="n">
         <v>1.14</v>
@@ -9226,7 +9226,7 @@
         <v>1.36</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.93</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT46" t="n">
         <v>2.55</v>
@@ -10647,7 +10647,7 @@
         <v>1.27</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU50" t="n">
         <v>1.41</v>
@@ -10847,7 +10847,7 @@
         <v>2.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT51" t="n">
         <v>1.55</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU52" t="n">
         <v>2.13</v>
@@ -11253,10 +11253,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU53" t="n">
         <v>1.19</v>
@@ -11456,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.6</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.37</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU57" t="n">
         <v>1.48</v>
@@ -13486,10 +13486,10 @@
         <v>1.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.88</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.27</v>
@@ -13892,10 +13892,10 @@
         <v>0.75</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU66" t="n">
         <v>2.24</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU68" t="n">
         <v>1.56</v>
@@ -14501,10 +14501,10 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU69" t="n">
         <v>1.65</v>
@@ -14704,10 +14704,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.58</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT75" t="n">
         <v>1.73</v>
@@ -16128,7 +16128,7 @@
         <v>1.58</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU77" t="n">
         <v>1.53</v>
@@ -16937,10 +16937,10 @@
         <v>1</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU81" t="n">
         <v>1.9</v>
@@ -17143,7 +17143,7 @@
         <v>0.91</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU82" t="n">
         <v>1.28</v>
@@ -17343,10 +17343,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>2.15</v>
@@ -17546,10 +17546,10 @@
         <v>1.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU84" t="n">
         <v>1.58</v>
@@ -17749,10 +17749,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU85" t="n">
         <v>1.97</v>
@@ -17952,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU86" t="n">
         <v>1.75</v>
@@ -18155,7 +18155,7 @@
         <v>2</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT87" t="n">
         <v>1.55</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU88" t="n">
         <v>1.38</v>
@@ -18767,7 +18767,7 @@
         <v>1.18</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU90" t="n">
         <v>1.55</v>
@@ -19170,7 +19170,7 @@
         <v>1.6</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT92" t="n">
         <v>1.82</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT93" t="n">
         <v>0.42</v>
@@ -19579,7 +19579,7 @@
         <v>1.58</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU94" t="n">
         <v>1.61</v>
@@ -20185,10 +20185,10 @@
         <v>1.2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.99</v>
@@ -20388,10 +20388,10 @@
         <v>0.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU98" t="n">
         <v>1.86</v>
@@ -20591,7 +20591,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT99" t="n">
         <v>1.55</v>
@@ -20997,10 +20997,10 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU101" t="n">
         <v>2.15</v>
@@ -21203,7 +21203,7 @@
         <v>0.91</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU102" t="n">
         <v>1.4</v>
@@ -21406,7 +21406,7 @@
         <v>1.27</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU103" t="n">
         <v>1.74</v>
@@ -21606,7 +21606,7 @@
         <v>1.6</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT104" t="n">
         <v>1.73</v>
@@ -21809,10 +21809,10 @@
         <v>0.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU105" t="n">
         <v>1.56</v>
@@ -22012,7 +22012,7 @@
         <v>2.43</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT106" t="n">
         <v>2.64</v>
@@ -22218,7 +22218,7 @@
         <v>1.58</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.69</v>
@@ -22421,7 +22421,7 @@
         <v>1.64</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU109" t="n">
         <v>1.31</v>
@@ -23230,7 +23230,7 @@
         <v>2.29</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT112" t="n">
         <v>2.55</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT113" t="n">
         <v>1.82</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT114" t="n">
         <v>1.73</v>
@@ -23842,7 +23842,7 @@
         <v>0.91</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU115" t="n">
         <v>1.38</v>
@@ -24042,10 +24042,10 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU116" t="n">
         <v>1.99</v>
@@ -24248,7 +24248,7 @@
         <v>1.27</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU117" t="n">
         <v>1.86</v>
@@ -24451,7 +24451,7 @@
         <v>1.18</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.56</v>
@@ -24651,7 +24651,7 @@
         <v>0.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT119" t="n">
         <v>0.42</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT120" t="n">
         <v>1.55</v>
@@ -25057,10 +25057,10 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU121" t="n">
         <v>1.63</v>
@@ -25263,7 +25263,7 @@
         <v>1.18</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU122" t="n">
         <v>1.61</v>
@@ -25466,7 +25466,7 @@
         <v>1.27</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU123" t="n">
         <v>1.83</v>
@@ -25666,7 +25666,7 @@
         <v>1.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT124" t="n">
         <v>1.73</v>
@@ -25869,7 +25869,7 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT125" t="n">
         <v>1.82</v>
@@ -26075,7 +26075,7 @@
         <v>1.58</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU126" t="n">
         <v>1.81</v>
@@ -26278,7 +26278,7 @@
         <v>0.91</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.45</v>
@@ -26478,7 +26478,7 @@
         <v>1.86</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT128" t="n">
         <v>1.55</v>
@@ -26681,7 +26681,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT129" t="n">
         <v>0.42</v>
@@ -26887,7 +26887,7 @@
         <v>1.36</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.76</v>
@@ -27087,10 +27087,10 @@
         <v>0.86</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU131" t="n">
         <v>1.93</v>
@@ -27290,7 +27290,7 @@
         <v>2.38</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT132" t="n">
         <v>2.55</v>
@@ -27493,7 +27493,7 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
         <v>1.55</v>
@@ -27696,10 +27696,10 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU134" t="n">
         <v>1.43</v>
@@ -27902,7 +27902,7 @@
         <v>1.27</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU135" t="n">
         <v>1.45</v>
@@ -28105,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU136" t="n">
         <v>1.33</v>
@@ -28305,7 +28305,7 @@
         <v>2.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT137" t="n">
         <v>2.64</v>
@@ -28508,7 +28508,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT138" t="n">
         <v>0.42</v>
@@ -28714,7 +28714,7 @@
         <v>1.58</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU139" t="n">
         <v>1.9</v>
@@ -28917,7 +28917,7 @@
         <v>1.64</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU140" t="n">
         <v>1.34</v>
@@ -29526,7 +29526,7 @@
         <v>1.18</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU143" t="n">
         <v>1.64</v>
@@ -29726,7 +29726,7 @@
         <v>1.75</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT144" t="n">
         <v>1.82</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT145" t="n">
         <v>1.55</v>
@@ -30132,7 +30132,7 @@
         <v>1.78</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT146" t="n">
         <v>1.55</v>
@@ -30335,10 +30335,10 @@
         <v>1.11</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU147" t="n">
         <v>1.39</v>
@@ -30538,10 +30538,10 @@
         <v>0.75</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU148" t="n">
         <v>1.94</v>
@@ -30744,7 +30744,7 @@
         <v>1.36</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU149" t="n">
         <v>1.77</v>
@@ -30944,10 +30944,10 @@
         <v>1.22</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.48</v>
@@ -31147,7 +31147,7 @@
         <v>1.22</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT151" t="n">
         <v>1.55</v>
@@ -31353,7 +31353,7 @@
         <v>1.27</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU152" t="n">
         <v>1.48</v>
@@ -31553,10 +31553,10 @@
         <v>0.89</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU153" t="n">
         <v>1.69</v>
@@ -31962,7 +31962,7 @@
         <v>1.58</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU155" t="n">
         <v>1.86</v>
@@ -32165,7 +32165,7 @@
         <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU156" t="n">
         <v>1.31</v>
@@ -32365,7 +32365,7 @@
         <v>2.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT157" t="n">
         <v>2.55</v>
@@ -32568,7 +32568,7 @@
         <v>2.56</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT158" t="n">
         <v>2.64</v>
@@ -33380,10 +33380,10 @@
         <v>1.4</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU162" t="n">
         <v>1.51</v>
@@ -33583,7 +33583,7 @@
         <v>1.6</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT163" t="n">
         <v>1.55</v>
@@ -33786,10 +33786,10 @@
         <v>1.1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU164" t="n">
         <v>1.68</v>
@@ -33992,7 +33992,7 @@
         <v>1.27</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU165" t="n">
         <v>1.5</v>
@@ -34192,10 +34192,10 @@
         <v>0.78</v>
       </c>
       <c r="AS166" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT166" t="n">
         <v>0.64</v>
-      </c>
-      <c r="AT166" t="n">
-        <v>0.7</v>
       </c>
       <c r="AU166" t="n">
         <v>1.76</v>
@@ -34395,10 +34395,10 @@
         <v>1.1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU167" t="n">
         <v>1.84</v>
@@ -34598,10 +34598,10 @@
         <v>1.1</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU168" t="n">
         <v>1.52</v>
@@ -34801,7 +34801,7 @@
         <v>1.4</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT169" t="n">
         <v>1.55</v>
@@ -35210,7 +35210,7 @@
         <v>1.58</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU171" t="n">
         <v>1.81</v>
@@ -36277,6 +36277,1630 @@
       </c>
       <c r="BK176" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2547100</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45016.54166666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>23</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Krka</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Dob</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2</v>
+      </c>
+      <c r="N177" t="n">
+        <v>4</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['3', '14']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['69', '76']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>12</v>
+      </c>
+      <c r="R177" t="n">
+        <v>3</v>
+      </c>
+      <c r="S177" t="n">
+        <v>15</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V177" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2547094</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45016.54166666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>3</v>
+      </c>
+      <c r="L178" t="n">
+        <v>4</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2</v>
+      </c>
+      <c r="N178" t="n">
+        <v>6</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['5', '44', '51', '90']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['31', '58']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>3</v>
+      </c>
+      <c r="S178" t="n">
+        <v>8</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2547098</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>3</v>
+      </c>
+      <c r="N179" t="n">
+        <v>5</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['41', '58']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['26', '78', '85']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>6</v>
+      </c>
+      <c r="R179" t="n">
+        <v>10</v>
+      </c>
+      <c r="S179" t="n">
+        <v>16</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2547101</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>23</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>NK Primorje</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>9</v>
+      </c>
+      <c r="R180" t="n">
+        <v>5</v>
+      </c>
+      <c r="S180" t="n">
+        <v>14</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V180" t="n">
+        <v>4</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2547096</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Aluminij</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Fužinar</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2</v>
+      </c>
+      <c r="L181" t="n">
+        <v>4</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>4</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['16', '44', '58', '85']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>4</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1</v>
+      </c>
+      <c r="S181" t="n">
+        <v>5</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V181" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2547097</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Rogaška</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Bistrica</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3</v>
+      </c>
+      <c r="L182" t="n">
+        <v>4</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>4</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['8', '11', '45', '69']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>7</v>
+      </c>
+      <c r="R182" t="n">
+        <v>3</v>
+      </c>
+      <c r="S182" t="n">
+        <v>10</v>
+      </c>
+      <c r="T182" t="n">
+        <v>2</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2547095</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Brinje-Grosuplje</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>2</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['19', '21']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>1</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2</v>
+      </c>
+      <c r="S183" t="n">
+        <v>3</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2547099</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F184" t="n">
+        <v>23</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Krško</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Dekani</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['28', '82']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>2</v>
+      </c>
+      <c r="R184" t="n">
+        <v>7</v>
+      </c>
+      <c r="S184" t="n">
+        <v>9</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.36</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT9" t="n">
         <v>2.64</v>
@@ -4963,7 +4963,7 @@
         <v>0.92</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU22" t="n">
         <v>1.3</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT25" t="n">
         <v>1.55</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU40" t="n">
         <v>1.38</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT41" t="n">
         <v>1.17</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>1.92</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU57" t="n">
         <v>1.48</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT68" t="n">
         <v>1.25</v>
@@ -14504,7 +14504,7 @@
         <v>0.83</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU69" t="n">
         <v>1.65</v>
@@ -17143,7 +17143,7 @@
         <v>0.91</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU82" t="n">
         <v>1.28</v>
@@ -17546,7 +17546,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT84" t="n">
         <v>1.5</v>
@@ -19579,7 +19579,7 @@
         <v>1.58</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU94" t="n">
         <v>1.61</v>
@@ -21606,7 +21606,7 @@
         <v>1.6</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT104" t="n">
         <v>1.73</v>
@@ -22421,7 +22421,7 @@
         <v>1.64</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT121" t="n">
         <v>0.64</v>
@@ -27290,7 +27290,7 @@
         <v>2.38</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT132" t="n">
         <v>2.55</v>
@@ -27902,7 +27902,7 @@
         <v>1.27</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU135" t="n">
         <v>1.45</v>
@@ -30132,7 +30132,7 @@
         <v>1.78</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT146" t="n">
         <v>1.55</v>
@@ -30338,7 +30338,7 @@
         <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU147" t="n">
         <v>1.39</v>
@@ -36831,7 +36831,7 @@
         <v>1.36</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT179" t="n">
         <v>1.5</v>
@@ -37240,7 +37240,7 @@
         <v>1.83</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU181" t="n">
         <v>1.86</v>
@@ -37901,6 +37901,209 @@
       </c>
       <c r="BK184" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2547081</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45021.45833333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>21</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Fužinar</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>6</v>
+      </c>
+      <c r="R185" t="n">
+        <v>5</v>
+      </c>
+      <c r="S185" t="n">
+        <v>11</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V185" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK185"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT5" t="n">
         <v>1.17</v>
@@ -1918,7 +1918,7 @@
         <v>0.92</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
         <v>1.17</v>
@@ -2527,7 +2527,7 @@
         <v>1.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT11" t="n">
         <v>1.55</v>
@@ -2933,7 +2933,7 @@
         <v>1.83</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.83</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU18" t="n">
         <v>1.45</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT20" t="n">
         <v>1.5</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT23" t="n">
         <v>0.64</v>
@@ -5775,7 +5775,7 @@
         <v>1.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU26" t="n">
         <v>2.45</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU27" t="n">
         <v>1.59</v>
@@ -6181,7 +6181,7 @@
         <v>1.27</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU28" t="n">
         <v>2.34</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT32" t="n">
         <v>0.42</v>
@@ -7399,7 +7399,7 @@
         <v>1.92</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT37" t="n">
         <v>1.25</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT39" t="n">
         <v>0.64</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT42" t="n">
         <v>1.55</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9429,7 +9429,7 @@
         <v>1.64</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU44" t="n">
         <v>1.35</v>
@@ -10038,7 +10038,7 @@
         <v>1.18</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU47" t="n">
         <v>1.92</v>
@@ -10238,7 +10238,7 @@
         <v>1.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT48" t="n">
         <v>2.64</v>
@@ -10444,7 +10444,7 @@
         <v>1.27</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.73</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT50" t="n">
         <v>0.64</v>
@@ -10850,7 +10850,7 @@
         <v>0.83</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU51" t="n">
         <v>1.91</v>
@@ -12268,7 +12268,7 @@
         <v>0.25</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT58" t="n">
         <v>1.55</v>
@@ -12474,7 +12474,7 @@
         <v>1.64</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU59" t="n">
         <v>1.37</v>
@@ -12674,10 +12674,10 @@
         <v>0.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU60" t="n">
         <v>1.3</v>
@@ -12877,7 +12877,7 @@
         <v>2.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT61" t="n">
         <v>1.55</v>
@@ -13286,7 +13286,7 @@
         <v>1.58</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU63" t="n">
         <v>1.43</v>
@@ -15113,7 +15113,7 @@
         <v>1.27</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU72" t="n">
         <v>1.65</v>
@@ -15313,10 +15313,10 @@
         <v>1.25</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU73" t="n">
         <v>1.84</v>
@@ -15516,10 +15516,10 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU74" t="n">
         <v>1.54</v>
@@ -15722,7 +15722,7 @@
         <v>0.92</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -16531,7 +16531,7 @@
         <v>2.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT79" t="n">
         <v>2.64</v>
@@ -16734,10 +16734,10 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU80" t="n">
         <v>1.8</v>
@@ -17140,7 +17140,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT82" t="n">
         <v>1.17</v>
@@ -18561,7 +18561,7 @@
         <v>2.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT89" t="n">
         <v>2.55</v>
@@ -18967,7 +18967,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT91" t="n">
         <v>1.55</v>
@@ -19173,7 +19173,7 @@
         <v>0.92</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU92" t="n">
         <v>1.52</v>
@@ -19376,7 +19376,7 @@
         <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU93" t="n">
         <v>1.35</v>
@@ -19782,7 +19782,7 @@
         <v>1.64</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU95" t="n">
         <v>1.27</v>
@@ -19982,7 +19982,7 @@
         <v>2.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT96" t="n">
         <v>2.64</v>
@@ -20797,7 +20797,7 @@
         <v>1.58</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU100" t="n">
         <v>1.68</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT102" t="n">
         <v>1.5</v>
@@ -21609,7 +21609,7 @@
         <v>1.58</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU104" t="n">
         <v>1.61</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT109" t="n">
         <v>1.17</v>
@@ -22824,7 +22824,7 @@
         <v>0.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT110" t="n">
         <v>1.55</v>
@@ -23027,10 +23027,10 @@
         <v>1.86</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU111" t="n">
         <v>1.77</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU113" t="n">
         <v>1.63</v>
@@ -23639,7 +23639,7 @@
         <v>1.83</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU114" t="n">
         <v>2.07</v>
@@ -23839,7 +23839,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT115" t="n">
         <v>0.42</v>
@@ -24654,7 +24654,7 @@
         <v>1.92</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU119" t="n">
         <v>2</v>
@@ -25669,7 +25669,7 @@
         <v>0.83</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU124" t="n">
         <v>1.82</v>
@@ -25872,7 +25872,7 @@
         <v>1.92</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU125" t="n">
         <v>2.05</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT127" t="n">
         <v>1.5</v>
@@ -26684,7 +26684,7 @@
         <v>1.83</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU129" t="n">
         <v>2.04</v>
@@ -26884,7 +26884,7 @@
         <v>1.25</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27496,7 +27496,7 @@
         <v>2</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU133" t="n">
         <v>1.37</v>
@@ -27899,7 +27899,7 @@
         <v>1.13</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT135" t="n">
         <v>1.17</v>
@@ -28102,7 +28102,7 @@
         <v>1.38</v>
       </c>
       <c r="AS136" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT136" t="n">
         <v>1.5</v>
@@ -28511,7 +28511,7 @@
         <v>1.25</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU138" t="n">
         <v>1.77</v>
@@ -29320,10 +29320,10 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU142" t="n">
         <v>1.58</v>
@@ -29729,7 +29729,7 @@
         <v>0.83</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU144" t="n">
         <v>1.82</v>
@@ -30135,7 +30135,7 @@
         <v>1.58</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU146" t="n">
         <v>1.64</v>
@@ -30741,7 +30741,7 @@
         <v>1.11</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT149" t="n">
         <v>1.25</v>
@@ -31350,7 +31350,7 @@
         <v>1.22</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT152" t="n">
         <v>1.5</v>
@@ -31756,10 +31756,10 @@
         <v>1.89</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU154" t="n">
         <v>1.58</v>
@@ -32162,7 +32162,7 @@
         <v>1.44</v>
       </c>
       <c r="AS156" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT156" t="n">
         <v>1.5</v>
@@ -32774,7 +32774,7 @@
         <v>1.27</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU159" t="n">
         <v>1.87</v>
@@ -33180,7 +33180,7 @@
         <v>1.18</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU161" t="n">
         <v>1.66</v>
@@ -33586,7 +33586,7 @@
         <v>1.83</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU163" t="n">
         <v>1.88</v>
@@ -33989,7 +33989,7 @@
         <v>0.4</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT165" t="n">
         <v>0.42</v>
@@ -35004,7 +35004,7 @@
         <v>2.5</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT170" t="n">
         <v>2.55</v>
@@ -35413,7 +35413,7 @@
         <v>1.18</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU172" t="n">
         <v>1.63</v>
@@ -35616,7 +35616,7 @@
         <v>1.64</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AU173" t="n">
         <v>1.37</v>
@@ -35816,7 +35816,7 @@
         <v>1.7</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT174" t="n">
         <v>1.55</v>
@@ -36019,10 +36019,10 @@
         <v>1.8</v>
       </c>
       <c r="AS175" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU175" t="n">
         <v>1.25</v>
@@ -38104,6 +38104,818 @@
       </c>
       <c r="BK185" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2547109</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45023.54166666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>4</v>
+      </c>
+      <c r="R186" t="n">
+        <v>11</v>
+      </c>
+      <c r="S186" t="n">
+        <v>15</v>
+      </c>
+      <c r="T186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2547103</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Krka</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>13</v>
+      </c>
+      <c r="R187" t="n">
+        <v>8</v>
+      </c>
+      <c r="S187" t="n">
+        <v>21</v>
+      </c>
+      <c r="T187" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2547104</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Dob</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Krško</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>7</v>
+      </c>
+      <c r="R188" t="n">
+        <v>8</v>
+      </c>
+      <c r="S188" t="n">
+        <v>15</v>
+      </c>
+      <c r="T188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V188" t="n">
+        <v>4</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2547105</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Dekani</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>9</v>
+      </c>
+      <c r="R189" t="n">
+        <v>5</v>
+      </c>
+      <c r="S189" t="n">
+        <v>14</v>
+      </c>
+      <c r="T189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia 2. SNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>0.64</v>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.58</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.08</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT14" t="n">
         <v>1.5</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT15" t="n">
         <v>0.42</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.25</v>
@@ -4354,7 +4354,7 @@
         <v>1.92</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.58</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU25" t="n">
         <v>0.65</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT28" t="n">
         <v>1.67</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU29" t="n">
         <v>2.31</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
         <v>1.5</v>
@@ -6790,7 +6790,7 @@
         <v>0.83</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU31" t="n">
         <v>1.88</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU33" t="n">
         <v>1.42</v>
@@ -7602,7 +7602,7 @@
         <v>1.83</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU35" t="n">
         <v>2.4</v>
@@ -9023,7 +9023,7 @@
         <v>1.17</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.26</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT44" t="n">
         <v>1.67</v>
@@ -9629,10 +9629,10 @@
         <v>0.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.48</v>
@@ -9835,7 +9835,7 @@
         <v>1.25</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU46" t="n">
         <v>2.12</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT47" t="n">
         <v>0.62</v>
@@ -10241,7 +10241,7 @@
         <v>1.08</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU48" t="n">
         <v>1.38</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT49" t="n">
         <v>1.67</v>
@@ -12271,7 +12271,7 @@
         <v>1.08</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU58" t="n">
         <v>1.27</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
         <v>1.67</v>
@@ -12880,7 +12880,7 @@
         <v>1.25</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU61" t="n">
         <v>1.45</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU62" t="n">
         <v>1.8</v>
@@ -13283,7 +13283,7 @@
         <v>2.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT63" t="n">
         <v>1.42</v>
@@ -14907,10 +14907,10 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU71" t="n">
         <v>1.6</v>
@@ -15110,7 +15110,7 @@
         <v>2.6</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT72" t="n">
         <v>1.42</v>
@@ -15922,10 +15922,10 @@
         <v>3</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU76" t="n">
         <v>1.25</v>
@@ -16125,7 +16125,7 @@
         <v>0.6</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT77" t="n">
         <v>1.17</v>
@@ -16328,10 +16328,10 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU78" t="n">
         <v>1.58</v>
@@ -16534,7 +16534,7 @@
         <v>1.17</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU79" t="n">
         <v>1.35</v>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU87" t="n">
         <v>1.6</v>
@@ -18564,7 +18564,7 @@
         <v>1.25</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU89" t="n">
         <v>1.74</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT90" t="n">
         <v>1.17</v>
@@ -18970,7 +18970,7 @@
         <v>1.17</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU91" t="n">
         <v>1.35</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT94" t="n">
         <v>1.17</v>
@@ -19779,7 +19779,7 @@
         <v>2.17</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT95" t="n">
         <v>1.42</v>
@@ -19985,7 +19985,7 @@
         <v>1.25</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -20594,7 +20594,7 @@
         <v>1.92</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU99" t="n">
         <v>2.01</v>
@@ -20794,7 +20794,7 @@
         <v>0.83</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT100" t="n">
         <v>0.62</v>
@@ -21403,7 +21403,7 @@
         <v>1.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -22015,7 +22015,7 @@
         <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU106" t="n">
         <v>1.35</v>
@@ -22215,7 +22215,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -22418,7 +22418,7 @@
         <v>0.86</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT108" t="n">
         <v>1.17</v>
@@ -22827,7 +22827,7 @@
         <v>1.25</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU110" t="n">
         <v>1.53</v>
@@ -23233,7 +23233,7 @@
         <v>0.92</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU112" t="n">
         <v>1.43</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT117" t="n">
         <v>1.25</v>
@@ -24448,7 +24448,7 @@
         <v>1.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT118" t="n">
         <v>1.5</v>
@@ -24857,7 +24857,7 @@
         <v>0.83</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU120" t="n">
         <v>1.83</v>
@@ -25260,7 +25260,7 @@
         <v>1.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT122" t="n">
         <v>1.25</v>
@@ -25463,7 +25463,7 @@
         <v>0.43</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT123" t="n">
         <v>0.42</v>
@@ -26072,7 +26072,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT126" t="n">
         <v>1.5</v>
@@ -26481,7 +26481,7 @@
         <v>1.25</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU128" t="n">
         <v>1.86</v>
@@ -27293,7 +27293,7 @@
         <v>1.58</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU132" t="n">
         <v>1.64</v>
@@ -28308,7 +28308,7 @@
         <v>1.83</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU137" t="n">
         <v>2.04</v>
@@ -28711,7 +28711,7 @@
         <v>1.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT139" t="n">
         <v>1.25</v>
@@ -28914,7 +28914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT140" t="n">
         <v>0.42</v>
@@ -29117,10 +29117,10 @@
         <v>2</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU141" t="n">
         <v>1.89</v>
@@ -29523,7 +29523,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT143" t="n">
         <v>1.5</v>
@@ -29932,7 +29932,7 @@
         <v>1</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU145" t="n">
         <v>1.68</v>
@@ -31150,7 +31150,7 @@
         <v>1.92</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU151" t="n">
         <v>1.93</v>
@@ -31959,7 +31959,7 @@
         <v>0.44</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT155" t="n">
         <v>0.42</v>
@@ -32368,7 +32368,7 @@
         <v>0.83</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU157" t="n">
         <v>1.82</v>
@@ -32571,7 +32571,7 @@
         <v>1.25</v>
       </c>
       <c r="AT158" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU158" t="n">
         <v>1.89</v>
@@ -32771,7 +32771,7 @@
         <v>0.5</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT159" t="n">
         <v>0.62</v>
@@ -32974,10 +32974,10 @@
         <v>1.78</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU160" t="n">
         <v>1.34</v>
@@ -33177,7 +33177,7 @@
         <v>1.67</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT161" t="n">
         <v>1.67</v>
@@ -34804,7 +34804,7 @@
         <v>1.25</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU169" t="n">
         <v>1.77</v>
@@ -35007,7 +35007,7 @@
         <v>1.08</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU170" t="n">
         <v>1.58</v>
@@ -35207,7 +35207,7 @@
         <v>1.6</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT171" t="n">
         <v>1.5</v>
@@ -35410,7 +35410,7 @@
         <v>2</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT172" t="n">
         <v>1.67</v>
@@ -35613,7 +35613,7 @@
         <v>0.45</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT173" t="n">
         <v>0.62</v>
@@ -35819,7 +35819,7 @@
         <v>1.25</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU174" t="n">
         <v>1.77</v>
@@ -36222,10 +36222,10 @@
         <v>2.6</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU176" t="n">
         <v>1.8</v>
@@ -38916,6 +38916,818 @@
       </c>
       <c r="BK189" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2547106</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45026.39583333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Rogaška</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['23', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>2</v>
+      </c>
+      <c r="R190" t="n">
+        <v>4</v>
+      </c>
+      <c r="S190" t="n">
+        <v>6</v>
+      </c>
+      <c r="T190" t="n">
+        <v>4</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2547108</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45026.45833333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Fužinar</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Brinje-Grosuplje</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>7</v>
+      </c>
+      <c r="R191" t="n">
+        <v>7</v>
+      </c>
+      <c r="S191" t="n">
+        <v>14</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2547107</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45026.45833333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Bistrica</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Aluminij</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>3</v>
+      </c>
+      <c r="R192" t="n">
+        <v>6</v>
+      </c>
+      <c r="S192" t="n">
+        <v>9</v>
+      </c>
+      <c r="T192" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2547102</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Slovenia 2. SNL</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45026.45833333334</v>
+      </c>
+      <c r="F193" t="n">
+        <v>24</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>NK Primorje</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['25', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>1</v>
+      </c>
+      <c r="R193" t="n">
+        <v>3</v>
+      </c>
+      <c r="S193" t="n">
+        <v>4</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
